--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="WT_0200_001_q">'WT 0200 001'!$N$3</definedName>
     <definedName name="WT_0200_004">'WT 0200 004'!$B$6</definedName>
     <definedName name="WT_0200_004_m">'WT 0200 004'!$N$12</definedName>
-    <definedName name="WT_0200_004_p">'WT 0200 004'!$I$19</definedName>
+    <definedName name="WT_0200_004_p">'WT 0200 004'!$I$17</definedName>
     <definedName name="WT_0200_004_q">'WT 0200 004'!$N$3</definedName>
     <definedName name="WT_0200_005">'WT 0200 005 '!$B$6</definedName>
     <definedName name="WT_0200_005_m">'WT 0200 005 '!$N$12</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="189">
   <si>
     <t>University</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>one setup for 2 pieces</t>
+  </si>
+  <si>
+    <t>Square area 45x45mm</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2583,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7640,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="35">
-        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <f t="shared" ref="I15:I24" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>1.3</v>
       </c>
       <c r="J15" s="64"/>
@@ -7677,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="34">
-        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <f t="shared" si="0"/>
         <v>37.224000000000004</v>
       </c>
       <c r="J16" s="62"/>
@@ -7711,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="34">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="J17" s="63"/>
@@ -7748,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="34">
-        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
       <c r="J18" s="63"/>
@@ -7780,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="34">
-        <f>IF(H19="",D19*F19,D19*F19*H19)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="J19" s="63"/>
@@ -7816,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="34">
-        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
       <c r="J20" s="63"/>
@@ -7848,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="34">
-        <f>IF(H21="",D21*F21,D21*F21*H21)</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="J21" s="63"/>
@@ -7885,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="34">
-        <f>IF(H22="",D22*F22,D22*F22*H22)</f>
+        <f t="shared" si="0"/>
         <v>1.3439999999999999E-2</v>
       </c>
       <c r="J22" s="62"/>
@@ -7921,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="34">
-        <f>IF(H23="",D23*F23,D23*F23*H23)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J23" s="62"/>
@@ -7957,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="34">
-        <f>IF(H24="",D24*F24,D24*F24*H24)</f>
+        <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
       <c r="J24" s="62"/>
@@ -8254,10 +8260,10 @@
     <tabColor rgb="FF99FFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,7 +8317,7 @@
       </c>
       <c r="N2" s="81">
         <f>WT_0200_004_m+WT_0200_004_p</f>
-        <v>2.1934313574000002</v>
+        <v>0.95013112</v>
       </c>
       <c r="O2" s="68"/>
     </row>
@@ -8341,7 +8347,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="68"/>
     </row>
@@ -8397,7 +8403,7 @@
       </c>
       <c r="N5" s="81">
         <f>N3*N2</f>
-        <v>4.3868627148000003</v>
+        <v>0.95013112</v>
       </c>
       <c r="O5" s="68"/>
     </row>
@@ -8531,7 +8537,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="34">
@@ -8539,7 +8545,7 @@
       </c>
       <c r="E11" s="158">
         <f>J11*K11*L11</f>
-        <v>5.7959846999999995E-2</v>
+        <v>1.0983600000000001E-2</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>160</v>
@@ -8547,14 +8553,14 @@
       <c r="G11" s="23"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J11" s="119">
-        <f>(55/2*10^-3)^2*3.14</f>
-        <v>2.374625E-3</v>
+        <f>(45*10^(-3))^2</f>
+        <v>2.0249999999999999E-3</v>
       </c>
       <c r="K11" s="25">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="L11" s="33">
         <v>2712</v>
@@ -8564,7 +8570,7 @@
       </c>
       <c r="N11" s="34">
         <f>D11*E11</f>
-        <v>0.24343135739999999</v>
+        <v>4.6131120000000005E-2</v>
       </c>
       <c r="O11" s="73"/>
     </row>
@@ -8586,7 +8592,7 @@
       </c>
       <c r="N12" s="134">
         <f>N11*M11</f>
-        <v>0.24343135739999999</v>
+        <v>4.6131120000000005E-2</v>
       </c>
       <c r="O12" s="68"/>
     </row>
@@ -8661,13 +8667,15 @@
       <c r="F15" s="159">
         <v>1</v>
       </c>
-      <c r="G15" s="159"/>
+      <c r="G15" s="159" t="s">
+        <v>186</v>
+      </c>
       <c r="H15" s="159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="35">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
@@ -8681,27 +8689,25 @@
         <v>20</v>
       </c>
       <c r="B16" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>164</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C16" s="160"/>
       <c r="D16" s="161">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159" t="s">
-        <v>174</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F16" s="159">
+        <v>25.4</v>
+      </c>
+      <c r="G16" s="159"/>
       <c r="H16" s="159">
         <v>1</v>
       </c>
       <c r="I16" s="34">
-        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
-        <v>0</v>
+        <f>F16*D16</f>
+        <v>0.254</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
@@ -8710,129 +8716,61 @@
       <c r="N16" s="62"/>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159">
-        <v>30</v>
-      </c>
-      <c r="B17" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="161">
-        <v>0.65</v>
-      </c>
-      <c r="E17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="159">
-        <v>1</v>
-      </c>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159">
-        <v>1</v>
-      </c>
-      <c r="I17" s="34">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="72"/>
-    </row>
-    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159">
-        <v>40</v>
-      </c>
-      <c r="B18" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="161">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="159">
-        <v>1</v>
-      </c>
-      <c r="I18" s="34">
-        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="72"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="136" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="134">
-        <f>SUM(I15:I18)</f>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="68"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="68"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
+      <c r="I17" s="134">
+        <f>SUM(I15:I16)</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="68"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8846,8 +8784,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="21" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
+    <brk id="19" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8860,7 +8798,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8895,7 +8833,7 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="WT A0200" sheetId="1" r:id="rId3"/>
     <sheet name="WT 0200 001" sheetId="2" r:id="rId4"/>
     <sheet name="WT 0200 001 Drawing" sheetId="9" r:id="rId5"/>
-    <sheet name="WT 0200 004" sheetId="14" r:id="rId6"/>
-    <sheet name="WT 0200 004 Drawing" sheetId="15" r:id="rId7"/>
-    <sheet name="WT 0200 005 " sheetId="12" r:id="rId8"/>
-    <sheet name="WT 0200 005 Drawing" sheetId="13" r:id="rId9"/>
-    <sheet name="WT 0200 006" sheetId="16" r:id="rId10"/>
-    <sheet name="WT 0200 006 Drawing" sheetId="17" r:id="rId11"/>
+    <sheet name="WT 0200 003" sheetId="18" r:id="rId6"/>
+    <sheet name="WT 0200 003 Drawing" sheetId="19" r:id="rId7"/>
+    <sheet name="WT 0200 004" sheetId="14" r:id="rId8"/>
+    <sheet name="WT 0200 004 Drawing" sheetId="15" r:id="rId9"/>
+    <sheet name="WT 0200 005" sheetId="12" r:id="rId10"/>
+    <sheet name="WT 0200 005 Drawing" sheetId="13" r:id="rId11"/>
+    <sheet name="WT 0200 006" sheetId="16" r:id="rId12"/>
+    <sheet name="WT 0200 006 Drawing" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
@@ -34,19 +36,25 @@
     <definedName name="WT_0200_001_m">'WT 0200 001'!$N$12</definedName>
     <definedName name="WT_0200_001_p">'WT 0200 001'!$I$25</definedName>
     <definedName name="WT_0200_001_q">'WT 0200 001'!$N$3</definedName>
+    <definedName name="WT_0200_003">'WT 0200 003'!$B$6</definedName>
+    <definedName name="WT_0200_003_m">'WT 0200 003'!$N$12</definedName>
+    <definedName name="WT_0200_003_p">'WT 0200 003'!$I$21</definedName>
+    <definedName name="WT_0200_003_q">'WT 0200 003'!$N$3</definedName>
     <definedName name="WT_0200_004">'WT 0200 004'!$B$6</definedName>
     <definedName name="WT_0200_004_m">'WT 0200 004'!$N$12</definedName>
     <definedName name="WT_0200_004_p">'WT 0200 004'!$I$17</definedName>
     <definedName name="WT_0200_004_q">'WT 0200 004'!$N$3</definedName>
-    <definedName name="WT_0200_005">'WT 0200 005 '!$B$6</definedName>
-    <definedName name="WT_0200_005_m">'WT 0200 005 '!$N$12</definedName>
-    <definedName name="WT_0200_005_p">'WT 0200 005 '!$I$19</definedName>
-    <definedName name="WT_0200_005_q">'WT 0200 005 '!$N$3</definedName>
+    <definedName name="WT_0200_005">'WT 0200 005'!$B$6</definedName>
+    <definedName name="WT_0200_005_m">'WT 0200 005'!$N$12</definedName>
+    <definedName name="WT_0200_005_p">'WT 0200 005'!$I$19</definedName>
+    <definedName name="WT_0200_005_q">'WT 0200 005'!$N$3</definedName>
     <definedName name="WT_0200_006">'WT 0200 006'!$B$6</definedName>
     <definedName name="WT_0200_006_m">'WT 0200 006'!$N$12</definedName>
     <definedName name="WT_0200_006_p">'WT 0200 006'!$I$17</definedName>
     <definedName name="WT_0200_006_q">'WT 0200 006'!$N$3</definedName>
     <definedName name="WT_A0200">'WT A0200'!$B$5</definedName>
+    <definedName name="WT_A0200_m">'WT A0200'!$N$24</definedName>
+    <definedName name="WT_A0200_pa">'WT A0200'!$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
@@ -54,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="187">
   <si>
     <t>University</t>
   </si>
@@ -149,25 +157,7 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Unobtanium (per kg)</t>
-  </si>
-  <si>
-    <t>Optional Text</t>
-  </si>
-  <si>
     <t>mm</t>
-  </si>
-  <si>
-    <t>Bar 50mm Square</t>
-  </si>
-  <si>
-    <t>Steel, Mild (per kg)</t>
-  </si>
-  <si>
-    <t>Stock material for some part</t>
-  </si>
-  <si>
-    <t>circle area</t>
   </si>
   <si>
     <t>Process</t>
@@ -665,6 +655,18 @@
   </si>
   <si>
     <t>Aluminum, Normal</t>
+  </si>
+  <si>
+    <t>round area, 55mm diameter</t>
+  </si>
+  <si>
+    <t>Front Wheel Spacer</t>
+  </si>
+  <si>
+    <t>WT 0200 003</t>
+  </si>
+  <si>
+    <t>Wheel Bearing, Ball, Angular Contact</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1296,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1327,15 +1329,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1356,9 +1353,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,7 +1400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1461,7 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1584,6 +1576,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,6 +1742,61 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>677989</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Capture d’écran">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C234CC-4F70-4793-A733-BA6337941E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="12279439" cy="8659433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -1796,7 +1846,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1850,7 +1900,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2238,335 +2288,335 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
-        <v>150</v>
+      <c r="A1" s="105" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>83</v>
+      <c r="A3" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
-        <v>114</v>
+      <c r="A10" s="102" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="110"/>
+      <c r="A18" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="102"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>90</v>
+      <c r="A23" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
-        <v>114</v>
+      <c r="A31" s="102" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>88</v>
+      <c r="A39" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="102" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>111</v>
+      <c r="A45" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="110" t="s">
-        <v>95</v>
+      <c r="A57" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="102" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="110" t="s">
-        <v>99</v>
+      <c r="A63" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="105" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="113" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2631,10 @@
     <tabColor rgb="FF99FFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,504 +2644,1147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="97">
         <v>81</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="127" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="81">
-        <f>WT_0200_006_m+WT_0200_006_p</f>
-        <v>3.9701600000000004</v>
-      </c>
-      <c r="O2" s="68"/>
+      <c r="N2" s="74">
+        <f>WT_0200_005_m+WT_0200_005_p</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="119" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="127" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="163" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="127" t="s">
+      <c r="E3" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="163" t="str">
+      <c r="B4" s="155" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="129" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="68"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="127" t="s">
+      <c r="B5" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="129" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="127" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="74">
+        <f>N3*N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="150">
+        <f>J11*K11*L11</f>
+        <v>5.7959846999999995E-2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="111">
+        <f>(55/2*10^-3)^2*3.14</f>
+        <v>2.374625E-3</v>
+      </c>
+      <c r="K11" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="30">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f>D11*E11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="126">
+        <f>N11*M11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
+        <v>10</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="153">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="151">
+        <v>1</v>
+      </c>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="151">
+        <v>20</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="151">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="151">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="151">
+        <v>30</v>
+      </c>
+      <c r="B17" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="153">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="151">
+        <v>1</v>
+      </c>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="151">
+        <v>40</v>
+      </c>
+      <c r="B18" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="151">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="151">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="126">
+        <f>SUM(I15:I18)</f>
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 0200 005 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="21" max="16383" man="1"/>
+    <brk id="55" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E5" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="155" t="str">
+        <f>WT_0200_005</f>
+        <v>WT 0200 005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="WT_0200_005" display="WT_0200_005"/>
+    <hyperlink ref="A1" location="'WT 0200 005 '!A1" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="97">
+        <v>81</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="74">
+        <f>WT_0200_006_m+WT_0200_006_p</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="91">
+        <v>1</v>
+      </c>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="155" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="74">
         <f>N3*N2</f>
         <v>3.9701600000000004</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="129" t="s">
+      <c r="B6" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="68"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="68"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="68"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="68"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="132" t="s">
+      <c r="I10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="132" t="s">
+      <c r="L10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="132" t="s">
+      <c r="M10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="132" t="s">
+      <c r="N10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="165" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="161">
+      <c r="B11" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="153">
         <v>2.25</v>
       </c>
-      <c r="E11" s="158">
+      <c r="E11" s="150">
         <f>J11*K11*L11</f>
         <v>0.20096000000000003</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="119">
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="111">
         <f>0.16*0.16</f>
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <v>1E-3</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="30">
         <v>7850</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="24">
         <v>1</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="31">
         <f>D11*E11</f>
         <v>0.45216000000000006</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="133" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="126">
         <f>N11*M11</f>
         <v>0.45216000000000006</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="68"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="132" t="s">
+      <c r="E14" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="132" t="s">
+      <c r="G14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
         <v>10</v>
       </c>
-      <c r="B15" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="161">
+      <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="153">
         <v>1.3</v>
       </c>
-      <c r="E15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="159">
+      <c r="E15" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="151">
         <v>1</v>
       </c>
-      <c r="G15" s="159" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="159">
+      <c r="G15" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="151">
         <v>0.5</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="32">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.65</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="75"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="159">
+      <c r="A16" s="151">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161">
+      <c r="B16" s="152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153">
         <v>0.01</v>
       </c>
-      <c r="E16" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="159">
+      <c r="E16" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="151">
         <v>286.8</v>
       </c>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159">
+      <c r="G16" s="151"/>
+      <c r="H16" s="151">
         <v>1</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <f>F16*D16</f>
         <v>2.8680000000000003</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="68"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="136" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="126">
         <f>SUM(I15:I16)</f>
         <v>3.5180000000000002</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="68"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="68"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3111,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF99FFCC"/>
@@ -3129,10 +3822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="163" t="str">
+      <c r="A1" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="155" t="str">
         <f>WT_0200_006</f>
         <v>WT 0200 006</v>
       </c>
@@ -3170,7 +3863,7 @@
     <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="42" customWidth="1"/>
     <col min="7" max="7" width="14" style="9" customWidth="1"/>
     <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="10.42578125" style="6" customWidth="1"/>
@@ -3180,493 +3873,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="M1" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="60" t="e">
+      <c r="B1" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="M1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="54" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="53">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="106">
+        <v>81</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" s="36" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:15" s="34" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="E6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="59">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="114">
-        <v>81</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:15" s="42" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="43"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:15" s="40" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="G6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="H6" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="I6" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="K6" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="L6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="M6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="N6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="O6" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138" t="str">
+      <c r="A7" s="129"/>
+      <c r="B7" s="130" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C7" s="139" t="e">
+      <c r="C7" s="131" t="e">
         <f>EL_A0001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140" t="str">
+      <c r="E7" s="131"/>
+      <c r="F7" s="132" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="141" t="e">
+      <c r="G7" s="131"/>
+      <c r="H7" s="133" t="e">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="142" t="e">
+      <c r="I7" s="134" t="e">
         <f>BR_A0001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J7" s="143" t="e">
+      <c r="J7" s="135" t="e">
         <f>BR_A0001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="143" t="e">
+      <c r="K7" s="135" t="e">
         <f>BR_A0001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L7" s="143" t="e">
+      <c r="L7" s="135" t="e">
         <f>BR_A0001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="143" t="e">
+      <c r="M7" s="135" t="e">
         <f>BR_A0001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N7" s="144" t="e">
+      <c r="N7" s="136" t="e">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
         <v>#NAME?</v>
       </c>
-      <c r="O7" s="145"/>
+      <c r="O7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147" t="str">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C8" s="155" t="e">
+      <c r="C8" s="147" t="e">
         <f>EL_01001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="148" t="str">
+      <c r="E8" s="140" t="str">
         <f>F7</f>
         <v>Front Hubs</v>
       </c>
-      <c r="F8" s="149" t="str">
+      <c r="F8" s="141" t="str">
         <f>'WT 0200 001'!B5</f>
         <v>Front Hub</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="150" t="e">
+      <c r="G8" s="140"/>
+      <c r="H8" s="142" t="e">
         <f t="shared" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="151" t="e">
+      <c r="I8" s="143" t="e">
         <f>BR_A0001_q*BR_01001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="152" t="e">
+      <c r="J8" s="144" t="e">
         <f>BR_01001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="152" t="e">
+      <c r="K8" s="144" t="e">
         <f>BR_01001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="152" t="e">
+      <c r="L8" s="144" t="e">
         <f>BR_01001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="152" t="e">
+      <c r="M8" s="144" t="e">
         <f>BR_01001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="153" t="e">
+      <c r="N8" s="145" t="e">
         <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="O8" s="154"/>
+      <c r="O8" s="146"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147" t="str">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148" t="s">
+      <c r="C9" s="140"/>
+      <c r="D9" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="150">
+      <c r="E9" s="140"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153">
+      <c r="I9" s="148"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="154"/>
+      <c r="O9" s="146"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="146"/>
-      <c r="B10" s="147" t="str">
+      <c r="A10" s="138"/>
+      <c r="B10" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148" t="s">
+      <c r="C10" s="140"/>
+      <c r="D10" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="150">
+      <c r="E10" s="140"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="153">
+      <c r="I10" s="148"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="154"/>
+      <c r="O10" s="146"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147" t="str">
+      <c r="A11" s="138"/>
+      <c r="B11" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="150">
+      <c r="E11" s="140"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="153">
+      <c r="I11" s="148"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="154"/>
+      <c r="O11" s="146"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147" t="str">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="150">
+      <c r="E12" s="140"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="153">
+      <c r="I12" s="148"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="154"/>
+      <c r="O12" s="146"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147" t="str">
+      <c r="A13" s="138"/>
+      <c r="B13" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148" t="s">
+      <c r="C13" s="140"/>
+      <c r="D13" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="150">
+      <c r="E13" s="140"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="153">
+      <c r="I13" s="148"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="154"/>
+      <c r="O13" s="146"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="146"/>
-      <c r="B14" s="147" t="str">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="140"/>
+      <c r="D14" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="150">
+      <c r="E14" s="140"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153">
+      <c r="I14" s="148"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="154"/>
+      <c r="O14" s="146"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147" t="str">
+      <c r="A15" s="138"/>
+      <c r="B15" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148" t="s">
+      <c r="C15" s="140"/>
+      <c r="D15" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="148"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="150">
+      <c r="E15" s="140"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="153">
+      <c r="I15" s="148"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="154"/>
+      <c r="O15" s="146"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147" t="str">
+      <c r="A16" s="138"/>
+      <c r="B16" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="150">
+      <c r="E16" s="140"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="156"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153">
+      <c r="I16" s="148"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="154"/>
+      <c r="O16" s="146"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147" t="str">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148" t="s">
+      <c r="C17" s="140"/>
+      <c r="D17" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="150">
+      <c r="E17" s="140"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153">
+      <c r="I17" s="148"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="154"/>
+      <c r="O17" s="146"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="47" t="str">
+      <c r="B18" s="41" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="47" t="s">
-        <v>81</v>
+      <c r="F18" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="118" t="e">
+      <c r="J18" s="110" t="e">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="118" t="e">
+      <c r="K18" s="110" t="e">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L18" s="118" t="e">
+      <c r="L18" s="110" t="e">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M18" s="118" t="e">
+      <c r="M18" s="110" t="e">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N18" s="118" t="e">
+      <c r="N18" s="110" t="e">
         <f>SUM(N7:N17)</f>
         <v>#NAME?</v>
       </c>
@@ -3674,7 +4367,7 @@
     </row>
     <row r="19" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3690,7 +4383,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3730,7 +4423,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
@@ -3758,7 +4451,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
@@ -4099,7 +4792,7 @@
     <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="11"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="42"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -4109,7 +4802,7 @@
     <row r="50" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="11"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="42"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -4119,7 +4812,7 @@
     <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="11"/>
-      <c r="F51" s="48"/>
+      <c r="F51" s="42"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -4129,7 +4822,7 @@
     <row r="52" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="11"/>
-      <c r="F52" s="48"/>
+      <c r="F52" s="42"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -4139,7 +4832,7 @@
     <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="11"/>
-      <c r="F53" s="48"/>
+      <c r="F53" s="42"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -4149,7 +4842,7 @@
     <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="11"/>
-      <c r="F54" s="48"/>
+      <c r="F54" s="42"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -4159,7 +4852,7 @@
     <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="11"/>
-      <c r="F55" s="48"/>
+      <c r="F55" s="42"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -4169,7 +4862,7 @@
     <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="11"/>
-      <c r="F56" s="48"/>
+      <c r="F56" s="42"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -4179,7 +4872,7 @@
     <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="11"/>
-      <c r="F57" s="48"/>
+      <c r="F57" s="42"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -4189,7 +4882,7 @@
     <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="11"/>
-      <c r="F58" s="48"/>
+      <c r="F58" s="42"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -4202,7 +4895,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="48"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
@@ -4218,7 +4911,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="48"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
@@ -4234,7 +4927,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="48"/>
+      <c r="F61" s="42"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
@@ -4250,7 +4943,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="48"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
@@ -4266,7 +4959,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="48"/>
+      <c r="F63" s="42"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
@@ -4282,7 +4975,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="48"/>
+      <c r="F64" s="42"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="6"/>
@@ -4298,7 +4991,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="48"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="6"/>
@@ -4314,7 +5007,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="48"/>
+      <c r="F66" s="42"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="6"/>
@@ -4330,7 +5023,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="48"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="6"/>
@@ -4346,7 +5039,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="48"/>
+      <c r="F68" s="42"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
@@ -4362,7 +5055,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="48"/>
+      <c r="F69" s="42"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
@@ -4378,7 +5071,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="48"/>
+      <c r="F70" s="42"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
@@ -4394,7 +5087,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="48"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="6"/>
@@ -4410,7 +5103,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="48"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="6"/>
@@ -4426,7 +5119,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="48"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="6"/>
@@ -4442,7 +5135,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="48"/>
+      <c r="F74" s="42"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="6"/>
@@ -4458,7 +5151,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="6"/>
@@ -4474,7 +5167,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="48"/>
+      <c r="F76" s="42"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="6"/>
@@ -4490,7 +5183,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="48"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="6"/>
@@ -4506,7 +5199,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="42"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="6"/>
@@ -4522,7 +5215,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="48"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="6"/>
@@ -4538,7 +5231,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="48"/>
+      <c r="F80" s="42"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="6"/>
@@ -4554,7 +5247,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="48"/>
+      <c r="F81" s="42"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="6"/>
@@ -4570,7 +5263,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="48"/>
+      <c r="F82" s="42"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="6"/>
@@ -4586,7 +5279,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="48"/>
+      <c r="F83" s="42"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="6"/>
@@ -4602,7 +5295,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="48"/>
+      <c r="F84" s="42"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="6"/>
@@ -4618,7 +5311,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="48"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="6"/>
@@ -4634,7 +5327,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="48"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="6"/>
@@ -4650,7 +5343,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="48"/>
+      <c r="F87" s="42"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="6"/>
@@ -4666,7 +5359,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="48"/>
+      <c r="F88" s="42"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="6"/>
@@ -4682,7 +5375,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="48"/>
+      <c r="F89" s="42"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="6"/>
@@ -4698,7 +5391,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="48"/>
+      <c r="F90" s="42"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="6"/>
@@ -4714,7 +5407,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="48"/>
+      <c r="F91" s="42"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="6"/>
@@ -4730,7 +5423,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="48"/>
+      <c r="F92" s="42"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="6"/>
@@ -4746,7 +5439,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="48"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6"/>
@@ -4762,7 +5455,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="48"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6"/>
@@ -4778,7 +5471,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="48"/>
+      <c r="F95" s="42"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="6"/>
@@ -4794,7 +5487,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="48"/>
+      <c r="F96" s="42"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="6"/>
@@ -4810,7 +5503,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="48"/>
+      <c r="F97" s="42"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="6"/>
@@ -4826,7 +5519,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="48"/>
+      <c r="F98" s="42"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="6"/>
@@ -4842,7 +5535,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="48"/>
+      <c r="F99" s="42"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="6"/>
@@ -4858,7 +5551,7 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="48"/>
+      <c r="F100" s="42"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="6"/>
@@ -4874,7 +5567,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="48"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6"/>
@@ -4890,7 +5583,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="48"/>
+      <c r="F102" s="42"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6"/>
@@ -4906,7 +5599,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="48"/>
+      <c r="F103" s="42"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6"/>
@@ -4922,7 +5615,7 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="48"/>
+      <c r="F104" s="42"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="6"/>
@@ -4938,7 +5631,7 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="48"/>
+      <c r="F105" s="42"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="6"/>
@@ -4954,7 +5647,7 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="48"/>
+      <c r="F106" s="42"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="6"/>
@@ -4970,7 +5663,7 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="48"/>
+      <c r="F107" s="42"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="6"/>
@@ -4986,7 +5679,7 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="48"/>
+      <c r="F108" s="42"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="6"/>
@@ -5002,7 +5695,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="48"/>
+      <c r="F109" s="42"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="6"/>
@@ -5018,7 +5711,7 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="48"/>
+      <c r="F110" s="42"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="6"/>
@@ -5034,7 +5727,7 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="48"/>
+      <c r="F111" s="42"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="6"/>
@@ -5050,7 +5743,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="48"/>
+      <c r="F112" s="42"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="6"/>
@@ -5066,7 +5759,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="48"/>
+      <c r="F113" s="42"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="6"/>
@@ -5082,7 +5775,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="48"/>
+      <c r="F114" s="42"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="6"/>
@@ -5098,7 +5791,7 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="48"/>
+      <c r="F115" s="42"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="6"/>
@@ -5114,7 +5807,7 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="48"/>
+      <c r="F116" s="42"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="6"/>
@@ -5130,7 +5823,7 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="48"/>
+      <c r="F117" s="42"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="6"/>
@@ -5146,7 +5839,7 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="48"/>
+      <c r="F118" s="42"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="6"/>
@@ -5162,7 +5855,7 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="48"/>
+      <c r="F119" s="42"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="6"/>
@@ -5178,7 +5871,7 @@
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="48"/>
+      <c r="F120" s="42"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="6"/>
@@ -5194,7 +5887,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="48"/>
+      <c r="F121" s="42"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="6"/>
@@ -5210,7 +5903,7 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="48"/>
+      <c r="F122" s="42"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="6"/>
@@ -5226,7 +5919,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="48"/>
+      <c r="F123" s="42"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="6"/>
@@ -5242,7 +5935,7 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="48"/>
+      <c r="F124" s="42"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="6"/>
@@ -5258,7 +5951,7 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="48"/>
+      <c r="F125" s="42"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="6"/>
@@ -5274,7 +5967,7 @@
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="48"/>
+      <c r="F126" s="42"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="6"/>
@@ -5290,7 +5983,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="48"/>
+      <c r="F127" s="42"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="6"/>
@@ -5306,7 +5999,7 @@
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="48"/>
+      <c r="F128" s="42"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="6"/>
@@ -5322,7 +6015,7 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="48"/>
+      <c r="F129" s="42"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="6"/>
@@ -5338,7 +6031,7 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="48"/>
+      <c r="F130" s="42"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="6"/>
@@ -5354,7 +6047,7 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="48"/>
+      <c r="F131" s="42"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="6"/>
@@ -5370,7 +6063,7 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="48"/>
+      <c r="F132" s="42"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="6"/>
@@ -5386,7 +6079,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="48"/>
+      <c r="F133" s="42"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="6"/>
@@ -5402,7 +6095,7 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="48"/>
+      <c r="F134" s="42"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="6"/>
@@ -5418,7 +6111,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="48"/>
+      <c r="F135" s="42"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="6"/>
@@ -5434,7 +6127,7 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="48"/>
+      <c r="F136" s="42"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="6"/>
@@ -5450,7 +6143,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="48"/>
+      <c r="F137" s="42"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="6"/>
@@ -5466,7 +6159,7 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="48"/>
+      <c r="F138" s="42"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="6"/>
@@ -5482,7 +6175,7 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="48"/>
+      <c r="F139" s="42"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="6"/>
@@ -5498,7 +6191,7 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="48"/>
+      <c r="F140" s="42"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="6"/>
@@ -5514,7 +6207,7 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="48"/>
+      <c r="F141" s="42"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="6"/>
@@ -5530,7 +6223,7 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="48"/>
+      <c r="F142" s="42"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="6"/>
@@ -5546,7 +6239,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="48"/>
+      <c r="F143" s="42"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="6"/>
@@ -5562,7 +6255,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="48"/>
+      <c r="F144" s="42"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="6"/>
@@ -5578,7 +6271,7 @@
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="48"/>
+      <c r="F145" s="42"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="6"/>
@@ -5594,7 +6287,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="48"/>
+      <c r="F146" s="42"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="6"/>
@@ -5610,7 +6303,7 @@
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="48"/>
+      <c r="F147" s="42"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="6"/>
@@ -5626,7 +6319,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="48"/>
+      <c r="F148" s="42"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="6"/>
@@ -5642,7 +6335,7 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="48"/>
+      <c r="F149" s="42"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="6"/>
@@ -5658,7 +6351,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="48"/>
+      <c r="F150" s="42"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="6"/>
@@ -5674,7 +6367,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="48"/>
+      <c r="F151" s="42"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="6"/>
@@ -5690,7 +6383,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="48"/>
+      <c r="F152" s="42"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="6"/>
@@ -5706,7 +6399,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="48"/>
+      <c r="F153" s="42"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="6"/>
@@ -5722,7 +6415,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="48"/>
+      <c r="F154" s="42"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="6"/>
@@ -5738,7 +6431,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="48"/>
+      <c r="F155" s="42"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="6"/>
@@ -5754,7 +6447,7 @@
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="48"/>
+      <c r="F156" s="42"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="6"/>
@@ -5770,7 +6463,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="48"/>
+      <c r="F157" s="42"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="6"/>
@@ -5786,7 +6479,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="48"/>
+      <c r="F158" s="42"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="6"/>
@@ -5802,7 +6495,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="48"/>
+      <c r="F159" s="42"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="6"/>
@@ -5818,7 +6511,7 @@
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="48"/>
+      <c r="F160" s="42"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="6"/>
@@ -5834,7 +6527,7 @@
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="48"/>
+      <c r="F161" s="42"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="6"/>
@@ -5850,7 +6543,7 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="48"/>
+      <c r="F162" s="42"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="6"/>
@@ -5866,7 +6559,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="48"/>
+      <c r="F163" s="42"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="6"/>
@@ -5882,7 +6575,7 @@
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="48"/>
+      <c r="F164" s="42"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="6"/>
@@ -5914,8 +6607,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,1269 +6629,1273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="97">
         <v>81</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="121" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="117" t="e">
-        <f>BR_A0001_pa+BR_A0001_m+BR_A0001_p+BR_A0001_f+BR_A0001_t</f>
+      <c r="N2" s="109" t="e">
+        <f>WT_A0200_pa+WT+BR_A0001_p+BR_A0001_f+BR_A0001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="O2" s="68"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="113" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="91">
         <v>2</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="122" t="s">
+      <c r="B4" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="68"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="122" t="s">
+      <c r="B5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="121" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="81" t="e">
+      <c r="N5" s="74" t="e">
         <f>N2*N3</f>
         <v>#NAME?</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="113" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="122" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="68"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="113" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="68"/>
+        <v>149</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="68"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+      <c r="A10" s="72">
         <v>10</v>
       </c>
-      <c r="B10" s="109" t="str">
+      <c r="B10" s="101" t="str">
         <f>'WT 0200 001'!B5</f>
         <v>Front Hub</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="74">
         <f>'WT 0200 001'!N2</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="100">
         <f>'WT 0200 001'!N3</f>
         <v>1</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="74">
         <f>C10*D10</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="68"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+      <c r="A11" s="72">
         <v>20</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
+      <c r="A12" s="72">
         <v>30</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="71"/>
-    </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+      <c r="B12" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="74">
+        <f>'WT 0200 003'!N2</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="D12" s="100">
+        <f>'WT 0200 003'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="74">
+        <f>C12*D12</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>40</v>
       </c>
-      <c r="B13" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="71"/>
-    </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79">
+      <c r="B13" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="74">
+        <f>'WT 0200 004'!N2</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="D13" s="100">
+        <f>'WT 0200 004'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="74">
+        <f>C13*D13</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>50</v>
       </c>
-      <c r="B14" s="164" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="72"/>
+      <c r="B14" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="74">
+        <f>'WT 0200 005'!N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="D14" s="100">
+        <f>'WT 0200 005'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="74">
+        <f>C14*D14</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="79">
+      <c r="A15" s="72">
         <v>60</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="68"/>
+      <c r="B15" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="74">
+        <f>'WT 0200 006'!N2</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="D15" s="100">
+        <f>'WT 0200 006'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="74">
+        <f>C15*D15</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="124" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="115">
         <f>SUM(E10:E15)</f>
-        <v>64.158517485600001</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="68"/>
+        <v>92.376897761400002</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="68"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="121" t="s">
+      <c r="G18" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="121" t="s">
+      <c r="I18" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="121" t="s">
+      <c r="J18" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="121" t="s">
+      <c r="K18" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="121" t="s">
+      <c r="L18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="121" t="s">
+      <c r="M18" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="121" t="s">
+      <c r="N18" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="68"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="79">
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
         <v>10</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="74">
+        <f>0.4*((E19^2*G19))^0.5</f>
+        <v>118.74544201778863</v>
+      </c>
+      <c r="E19" s="72">
+        <v>72</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="81">
-        <v>100</v>
-      </c>
-      <c r="E19" s="79">
-        <v>50</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="79">
-        <v>50</v>
-      </c>
-      <c r="H19" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="85">
-        <f>G19*E19/1000000</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="K19" s="83">
-        <v>200</v>
-      </c>
-      <c r="L19" s="83">
-        <v>3.5</v>
-      </c>
-      <c r="M19" s="83">
-        <f>J19*K19*L19</f>
-        <v>1.75</v>
-      </c>
-      <c r="N19" s="81">
+      <c r="G19" s="72">
+        <v>17</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76">
+        <v>2</v>
+      </c>
+      <c r="N19" s="74">
         <f>M19*D19</f>
-        <v>175</v>
-      </c>
-      <c r="O19" s="68"/>
-    </row>
-    <row r="20" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79">
+        <v>237.49088403557727</v>
+      </c>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
         <v>20</v>
       </c>
-      <c r="B20" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="81">
-        <v>2.25</v>
-      </c>
-      <c r="E20" s="87">
-        <v>165</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="120">
-        <f>(E20*10^-3)^2*3.14/4</f>
-        <v>2.1371625000000002E-2</v>
-      </c>
-      <c r="K20" s="90">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="91">
-        <v>7860</v>
-      </c>
-      <c r="M20" s="92">
-        <f>K20*J20*L20</f>
-        <v>0.83990486250000007</v>
-      </c>
-      <c r="N20" s="81">
+      <c r="B20" s="72"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="74">
         <f>M20*D20</f>
-        <v>1.8897859406250002</v>
-      </c>
-      <c r="O20" s="73"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="66"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="81">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="74">
         <f>M21*D21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="68"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="81">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="74">
         <f>M22*D22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="68"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="82" t="s">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="81">
+      <c r="D23" s="74"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="74">
         <f>M23*D23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="68"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="121" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="123">
+      <c r="N24" s="115">
         <f>SUM(N19:N23)</f>
-        <v>176.88978594062499</v>
-      </c>
-      <c r="O24" s="68"/>
+        <v>237.49088403557727</v>
+      </c>
+      <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="68"/>
-    </row>
-    <row r="26" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="68"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
+        <v>10</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="74">
+        <v>0.13</v>
+      </c>
+      <c r="E27" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="75"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="79">
-        <v>10</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="81">
-        <v>0.13</v>
-      </c>
-      <c r="E27" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="94">
+      <c r="F27" s="87">
         <v>2</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="81">
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="74">
         <f t="shared" ref="I27:I32" si="0">IF(H27="",D27*F27,D27*F27*H27)</f>
         <v>0.26</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="68"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="62"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="79">
+      <c r="A28" s="72">
         <v>20</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="81">
+      <c r="B28" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="74">
         <v>0.06</v>
       </c>
-      <c r="E28" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="94">
+      <c r="E28" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="87">
         <v>1</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="81">
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="74">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="68"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="62"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="79">
+      <c r="A29" s="72">
         <v>30</v>
       </c>
-      <c r="B29" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="81">
+      <c r="B29" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="74">
         <v>0.5</v>
       </c>
-      <c r="E29" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="94">
+      <c r="E29" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="87">
         <v>2</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="81">
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="74">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="68"/>
-    </row>
-    <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="81">
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="62"/>
+    </row>
+    <row r="30" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="72"/>
-    </row>
-    <row r="31" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="81">
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="75"/>
-    </row>
-    <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="82" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="68"/>
+    </row>
+    <row r="32" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="81">
+      <c r="D32" s="74"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="72"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="124" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="123">
+      <c r="I33" s="115">
         <f>SUM(I27:I29)</f>
         <v>1.32</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="68"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="68"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="121" t="s">
+      <c r="B35" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="121" t="s">
+      <c r="E35" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="121" t="s">
+      <c r="F35" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="121" t="s">
+      <c r="G35" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H35" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="121" t="s">
+      <c r="I35" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="121" t="s">
+      <c r="J35" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="68"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="79">
+      <c r="A36" s="72">
         <v>10</v>
       </c>
-      <c r="B36" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="96">
+      <c r="B36" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="89">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="90">
         <v>8</v>
       </c>
-      <c r="F36" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="97">
+      <c r="F36" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="90">
         <v>35</v>
       </c>
-      <c r="H36" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="98">
+      <c r="H36" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="91">
         <v>2</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="74">
         <f>I36*D36</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="68"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="79">
+      <c r="A37" s="72">
         <v>20</v>
       </c>
-      <c r="B37" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="96">
+      <c r="B37" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="89">
         <v>0.01</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="72">
         <v>8</v>
       </c>
-      <c r="F37" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="98">
+      <c r="F37" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="91">
         <v>2</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="74">
         <f>I37*D37</f>
         <v>0.02</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="68"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="62"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+      <c r="A38" s="72">
         <v>30</v>
       </c>
-      <c r="B38" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="96">
+      <c r="B38" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="89">
         <v>0.01</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="72">
         <v>12</v>
       </c>
-      <c r="F38" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="98">
+      <c r="F38" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="91">
         <v>12</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="74">
         <f>I38*D38</f>
         <v>0.12</v>
       </c>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="68"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="62"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
+      <c r="A39" s="72">
         <v>40</v>
       </c>
-      <c r="B39" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="101">
+      <c r="B39" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="79"/>
+      <c r="D39" s="94">
         <v>0.04</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="79">
         <v>12</v>
       </c>
-      <c r="F39" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="103">
+      <c r="F39" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="96">
         <v>6</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="74">
         <f>I39*D39</f>
         <v>0.24</v>
       </c>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="68"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="62"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="68"/>
-    </row>
-    <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="72"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="62"/>
+    </row>
+    <row r="41" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="82" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="68"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="62"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="124" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="123">
+      <c r="J43" s="115">
         <f>SUM(J36:J40)</f>
         <v>0.66</v>
       </c>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="68"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="62"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="68"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="62"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="121" t="s">
+      <c r="B45" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="121" t="s">
+      <c r="E45" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="121" t="s">
+      <c r="G45" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="68"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="62"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="79">
+      <c r="A46" s="72">
         <v>10</v>
       </c>
-      <c r="B46" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="81">
+      <c r="B46" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="74">
         <v>500</v>
       </c>
-      <c r="E46" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="79">
+      <c r="E46" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="72">
         <v>30</v>
       </c>
-      <c r="G46" s="79">
+      <c r="G46" s="72">
         <v>3000</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="72">
         <v>1</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="74">
         <f>D46*F46/G46*H46</f>
         <v>5</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="68"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="62"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="68"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="62"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="125" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="126">
+      <c r="I48" s="118">
         <f>SUM(I46:I47)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="68"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="62"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="78"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="71"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7206,6 +7903,7 @@
     <hyperlink ref="B14" location="'WT 0200 005 '!A1" display="Front Bearing Spacer"/>
     <hyperlink ref="B13" location="WT_0200_004" display="Speed Sensor Spacer"/>
     <hyperlink ref="B15" location="'WT 0200 006'!A1" display="Speed Sensor Disc"/>
+    <hyperlink ref="B12" location="'WT 0200 003'!A1" display="Front Wheel Spacer"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7224,10 +7922,10 @@
     <tabColor rgb="FF99FFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,959 +7943,789 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="97">
         <v>81</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="127" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="81">
+      <c r="N2" s="74">
         <f>WT_0200_001_m+WT_0200_001_p</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="O2" s="68"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="119" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="127" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="127" t="s">
+      <c r="E3" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="163" t="str">
+      <c r="B4" s="155" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="129" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="68"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="127" t="s">
+      <c r="B5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="129" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="127" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="74">
         <f>N3*N2</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="129" t="s">
+      <c r="B6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="68"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="68"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="68"/>
+        <v>152</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="68"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="132" t="s">
+      <c r="I10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="132" t="s">
+      <c r="L10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="132" t="s">
+      <c r="M10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="132" t="s">
+      <c r="N10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34">
+      <c r="B11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="158">
+      <c r="E11" s="150">
         <f>J11*K11*L11</f>
         <v>3.2740660680000002</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="119">
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="111">
         <f>(65*10^-3)^2*3.14</f>
         <v>1.3266500000000002E-2</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="30">
         <v>2712</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="24">
         <v>1</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="31">
         <f>D11*E11</f>
         <v>13.751077485600002</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="133" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="126">
         <f>N11*M11</f>
         <v>13.751077485600002</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="68"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="132" t="s">
+      <c r="E14" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="132" t="s">
+      <c r="G14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
         <v>10</v>
       </c>
-      <c r="B15" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="161">
+      <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="153">
         <v>1.3</v>
       </c>
-      <c r="E15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="159">
+      <c r="E15" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="151">
         <v>1</v>
       </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159">
+      <c r="G15" s="151"/>
+      <c r="H15" s="151">
         <v>1</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="32">
         <f t="shared" ref="I15:I24" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>1.3</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="75"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="159">
+      <c r="A16" s="151">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="161">
+      <c r="B16" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="153">
         <v>0.04</v>
       </c>
-      <c r="E16" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="159">
+      <c r="E16" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="151">
         <f>13.2+898.7+18.7</f>
         <v>930.60000000000014</v>
       </c>
-      <c r="G16" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="159">
+      <c r="G16" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="151">
         <v>1</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <f t="shared" si="0"/>
         <v>37.224000000000004</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159">
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="151">
         <v>30</v>
       </c>
-      <c r="B17" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="161">
+      <c r="B17" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="153">
         <v>0.65</v>
       </c>
-      <c r="E17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="159">
+      <c r="E17" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="151">
         <v>1</v>
       </c>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159">
+      <c r="G17" s="151"/>
+      <c r="H17" s="151">
         <v>1</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="72"/>
-    </row>
-    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159">
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="151">
         <v>40</v>
       </c>
-      <c r="B18" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="161">
+      <c r="B18" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="153">
         <v>0.04</v>
       </c>
-      <c r="E18" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="159">
+      <c r="E18" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="151">
         <f>13.2+53.1-2.8</f>
         <v>63.5</v>
       </c>
-      <c r="G18" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="159">
+      <c r="G18" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="151">
         <v>1</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="31">
         <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="72"/>
-    </row>
-    <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159">
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="151">
         <v>50</v>
       </c>
-      <c r="B19" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161">
+      <c r="B19" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153">
         <v>1.3</v>
       </c>
-      <c r="E19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="159">
+      <c r="E19" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="151">
         <v>1</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159">
+      <c r="G19" s="151"/>
+      <c r="H19" s="151">
         <v>1</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="31">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="72"/>
-    </row>
-    <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159">
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="65"/>
+    </row>
+    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="151">
         <v>60</v>
       </c>
-      <c r="B20" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="161">
+      <c r="B20" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="153">
         <v>0.04</v>
       </c>
-      <c r="E20" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="159">
+      <c r="E20" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="151">
         <v>149</v>
       </c>
-      <c r="G20" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="159">
+      <c r="G20" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="151">
         <v>1</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="31">
         <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="72"/>
-    </row>
-    <row r="21" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="65"/>
+    </row>
+    <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="151">
         <v>70</v>
       </c>
-      <c r="B21" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161">
+      <c r="B21" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153">
         <v>0.65</v>
       </c>
-      <c r="E21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="159">
+      <c r="E21" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="151">
         <v>1</v>
       </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159">
+      <c r="G21" s="151"/>
+      <c r="H21" s="151">
         <v>1</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="31">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="72"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="159">
+      <c r="A22" s="151">
         <v>80</v>
       </c>
-      <c r="B22" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="161">
+      <c r="B22" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="153">
         <v>0.04</v>
       </c>
-      <c r="E22" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="159">
+      <c r="E22" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="151">
         <f>0.48*0.7</f>
         <v>0.33599999999999997</v>
       </c>
-      <c r="G22" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="159">
+      <c r="G22" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="151">
         <v>1</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="31">
         <f t="shared" si="0"/>
         <v>1.3439999999999999E-2</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="68"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="159">
+      <c r="A23" s="151">
         <v>90</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="153">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="151">
+        <v>6</v>
+      </c>
+      <c r="G23" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="160" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="161">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="159">
-        <v>6</v>
-      </c>
-      <c r="G23" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="159">
+      <c r="H23" s="151">
         <v>1</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="31">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="68"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="159">
+      <c r="A24" s="151">
         <v>100</v>
       </c>
-      <c r="B24" s="162" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="160" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="161">
+      <c r="B24" s="154" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="153">
         <v>0.1</v>
       </c>
-      <c r="E24" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="159">
+      <c r="E24" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="151">
         <v>1.7</v>
       </c>
-      <c r="G24" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="159">
+      <c r="G24" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="151">
         <v>1</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="31">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="68"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="136" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="134">
+      <c r="I25" s="126">
         <f>SUM(I15:I24)</f>
         <v>50.407440000000001</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="68"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="68"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="68"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="68"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="68"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="68"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="68"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="68"/>
-    </row>
-    <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="72"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="68"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="68"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="78"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="62"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8211,8 +8739,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="37" max="16383" man="1"/>
-    <brk id="71" max="16383" man="1"/>
+    <brk id="27" max="16383" man="1"/>
+    <brk id="61" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8225,9 +8753,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8235,10 +8761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="163" t="str">
+      <c r="A1" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="155" t="str">
         <f>WT_0200_001</f>
         <v>WT 0200 001</v>
       </c>
@@ -8255,6 +8781,723 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="97">
+        <v>81</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="74">
+        <f>WT_0200_003_m+WT_0200_003_p</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="91">
+        <v>1</v>
+      </c>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="155" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="74">
+        <f>N3*N2</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="150">
+        <f>J11*K11*L11</f>
+        <v>0.86348995200000023</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="111">
+        <f>(65*10^-3)^2*3.14</f>
+        <v>1.3266500000000002E-2</v>
+      </c>
+      <c r="K11" s="22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L11" s="30">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f>D11*E11</f>
+        <v>3.626657798400001</v>
+      </c>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="126">
+        <f>N11*M11</f>
+        <v>3.626657798400001</v>
+      </c>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
+        <v>10</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="153">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="151">
+        <v>1</v>
+      </c>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="151">
+        <v>20</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="151">
+        <v>112</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="151">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="151">
+        <v>30</v>
+      </c>
+      <c r="B17" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="153">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="151">
+        <v>1</v>
+      </c>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="151">
+        <v>40</v>
+      </c>
+      <c r="B18" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="151">
+        <v>84</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="151">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>3.36</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="151">
+        <v>50</v>
+      </c>
+      <c r="B19" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="151">
+        <v>1</v>
+      </c>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="65"/>
+    </row>
+    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="151">
+        <v>60</v>
+      </c>
+      <c r="B20" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="151">
+        <v>149</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="151">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31">
+        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <v>5.96</v>
+      </c>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="65"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="126">
+        <f>SUM(I15:I20)</f>
+        <v>17.05</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="62"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+    <hyperlink ref="E3" location="'WT 0200 003 Drawing'!A1" display="Drawing"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="23" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="155" t="str">
+        <f>WT_0200_003</f>
+        <v>WT 0200 003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'WT 0200 003'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 0200 003'!A1" display="'WT 0200 003'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF99FFCC"/>
@@ -8273,504 +9516,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="97">
         <v>81</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="127" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="81">
+      <c r="N2" s="74">
         <f>WT_0200_004_m+WT_0200_004_p</f>
         <v>0.95013112</v>
       </c>
-      <c r="O2" s="68"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="119" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="127" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="127" t="s">
+      <c r="E3" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="91">
         <v>1</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="163" t="str">
+      <c r="B4" s="155" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="129" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="68"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="127" t="s">
+      <c r="B5" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="129" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="127" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="74">
         <f>N3*N2</f>
         <v>0.95013112</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="129" t="s">
+      <c r="B6" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="68"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="68"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="68"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="68"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="132" t="s">
+      <c r="I10" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="132" t="s">
+      <c r="L10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="132" t="s">
+      <c r="M10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="132" t="s">
+      <c r="N10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34">
+      <c r="B11" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="158">
+      <c r="E11" s="150">
         <f>J11*K11*L11</f>
         <v>1.0983600000000001E-2</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="119">
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="111">
         <f>(45*10^(-3))^2</f>
         <v>2.0249999999999999E-3</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <v>2E-3</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="30">
         <v>2712</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="24">
         <v>1</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="31">
         <f>D11*E11</f>
         <v>4.6131120000000005E-2</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="133" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="126">
         <f>N11*M11</f>
         <v>4.6131120000000005E-2</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="68"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="132" t="s">
+      <c r="E14" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="132" t="s">
+      <c r="G14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
         <v>10</v>
       </c>
-      <c r="B15" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="161">
+      <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="153">
         <v>1.3</v>
       </c>
-      <c r="E15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="159">
+      <c r="E15" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="151">
         <v>1</v>
       </c>
-      <c r="G15" s="159" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="159">
+      <c r="G15" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="151">
         <v>0.5</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="32">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.65</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="75"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="159">
+      <c r="A16" s="151">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161">
+      <c r="B16" s="152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153">
         <v>0.01</v>
       </c>
-      <c r="E16" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="159">
+      <c r="E16" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="151">
         <v>25.4</v>
       </c>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159">
+      <c r="G16" s="151"/>
+      <c r="H16" s="151">
         <v>1</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <f>F16*D16</f>
         <v>0.254</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="68"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="136" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="126">
         <f>SUM(I15:I16)</f>
         <v>0.90400000000000003</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="68"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="68"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8786,645 +10029,6 @@
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="19" max="16383" man="1"/>
     <brk id="53" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="163" t="str">
-        <f>WT_0200_004</f>
-        <v>WT 0200 004</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="WT_0200_004" display="WT_0200_004"/>
-    <hyperlink ref="A1" location="'WT 0200 004'!A1" display="Drawing part :"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="104">
-        <v>81</v>
-      </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="81">
-        <f>WT_0200_005_m+WT_0200_005_p</f>
-        <v>2.1934313574000002</v>
-      </c>
-      <c r="O2" s="68"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>'WT A0200'!B3</f>
-        <v>Wheels &amp; Tires</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="98">
-        <v>2</v>
-      </c>
-      <c r="O3" s="68"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="163" t="str">
-        <f>'WT A0200'!B4</f>
-        <v>Front Hubs</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="68"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="81">
-        <f>N3*N2</f>
-        <v>4.3868627148000003</v>
-      </c>
-      <c r="O5" s="68"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="68"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="68"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="68"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="E11" s="158">
-        <f>J11*K11*L11</f>
-        <v>5.7959846999999995E-2</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="119">
-        <f>(55/2*10^-3)^2*3.14</f>
-        <v>2.374625E-3</v>
-      </c>
-      <c r="K11" s="25">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L11" s="33">
-        <v>2712</v>
-      </c>
-      <c r="M11" s="27">
-        <v>1</v>
-      </c>
-      <c r="N11" s="34">
-        <f>D11*E11</f>
-        <v>0.24343135739999999</v>
-      </c>
-      <c r="O11" s="73"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="134">
-        <f>N11*M11</f>
-        <v>0.24343135739999999</v>
-      </c>
-      <c r="O12" s="68"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="68"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
-        <v>10</v>
-      </c>
-      <c r="B15" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="161">
-        <v>1.3</v>
-      </c>
-      <c r="E15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="159">
-        <v>1</v>
-      </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159">
-        <v>1</v>
-      </c>
-      <c r="I15" s="35">
-        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>1.3</v>
-      </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="159">
-        <v>20</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="161">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="159">
-        <v>1</v>
-      </c>
-      <c r="I16" s="34">
-        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159">
-        <v>30</v>
-      </c>
-      <c r="B17" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="161">
-        <v>0.65</v>
-      </c>
-      <c r="E17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="159">
-        <v>1</v>
-      </c>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159">
-        <v>1</v>
-      </c>
-      <c r="I17" s="34">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="72"/>
-    </row>
-    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159">
-        <v>40</v>
-      </c>
-      <c r="B18" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="161">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="159">
-        <v>1</v>
-      </c>
-      <c r="I18" s="34">
-        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="72"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="134">
-        <f>SUM(I15:I18)</f>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="68"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="68"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" location="'WT 0200 005 Drawing'!A1" display="Drawing"/>
-    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="21" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -9445,18 +10049,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="163" t="str">
-        <f>WT_0200_005</f>
-        <v>WT 0200 005</v>
+      <c r="A1" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="155" t="str">
+        <f>WT_0200_004</f>
+        <v>WT 0200 004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="WT_0200_005" display="WT_0200_005"/>
-    <hyperlink ref="A1" location="'WT 0200 005 '!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="WT_0200_004" display="WT_0200_004"/>
+    <hyperlink ref="A1" location="'WT 0200 004'!A1" display="Drawing part :"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,7 +6607,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -7925,7 +7925,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8789,7 +8789,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8910,7 +8910,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="119" t="s">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="32">
-        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <f t="shared" ref="I15:I19" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>1.3</v>
       </c>
       <c r="J15" s="58"/>
@@ -9505,8 +9505,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -53,16 +53,18 @@
     <definedName name="WT_0200_006_p">'WT 0200 006'!$I$17</definedName>
     <definedName name="WT_0200_006_q">'WT 0200 006'!$N$3</definedName>
     <definedName name="WT_A0200">'WT A0200'!$B$5</definedName>
-    <definedName name="WT_A0200_m">'WT A0200'!$N$24</definedName>
+    <definedName name="WT_A0200_f">'WT A0200'!$J$38</definedName>
+    <definedName name="WT_A0200_m">'WT A0200'!$N$22</definedName>
+    <definedName name="WT_A0200_p">'WT A0200'!$I$34</definedName>
     <definedName name="WT_A0200_pa">'WT A0200'!$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="189">
   <si>
     <t>University</t>
   </si>
@@ -121,9 +123,6 @@
     <t>Sub Total</t>
   </si>
   <si>
-    <t>lignes vides à supprimer si non utilisées</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -172,61 +171,10 @@
     <t>Mult. Val.</t>
   </si>
   <si>
-    <t>Process 1</t>
-  </si>
-  <si>
-    <t>Describe process briefly</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
-    <t>Process 2</t>
-  </si>
-  <si>
-    <t>Example : Assemble part 1 on part 2</t>
-  </si>
-  <si>
-    <t>Process 3 (example : Ratchet)</t>
-  </si>
-  <si>
-    <t>Example : Tighten bolts</t>
-  </si>
-  <si>
     <t>Fastener</t>
-  </si>
-  <si>
-    <t>Bolt,Grade 8.8 (SAE)</t>
-  </si>
-  <si>
-    <t>Example : bolt Part 1 on Part 2</t>
-  </si>
-  <si>
-    <t>Washer, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Nut, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Retaining Ring, External</t>
-  </si>
-  <si>
-    <t>Tooling</t>
-  </si>
-  <si>
-    <t>PVF</t>
-  </si>
-  <si>
-    <t>FractionIncluded</t>
-  </si>
-  <si>
-    <t>Welds - Welding Fixture</t>
-  </si>
-  <si>
-    <t>Exemple de Tooling</t>
-  </si>
-  <si>
-    <t>point</t>
   </si>
   <si>
     <t>Ecole Centrale de Lyon</t>
@@ -668,33 +616,102 @@
   <si>
     <t>Wheel Bearing, Ball, Angular Contact</t>
   </si>
+  <si>
+    <t>Locknut/L.P.///Steel/</t>
+  </si>
+  <si>
+    <t>Bearing Nuts</t>
+  </si>
+  <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>Wheel studs and hub assemble, cost included in process</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Interference</t>
+  </si>
+  <si>
+    <t>Bearings Assemble</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Loose</t>
+  </si>
+  <si>
+    <t>Liquid Applicator Gun</t>
+  </si>
+  <si>
+    <t>Wheel studs and hub assemble</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Locknut on hub</t>
+  </si>
+  <si>
+    <t>Bearing spacer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Speed sensor spacer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Speed sensor disc assemble on the hub</t>
+  </si>
+  <si>
+    <t>Stud, Grade 12.9</t>
+  </si>
+  <si>
+    <t>Wheel Studs</t>
+  </si>
+  <si>
+    <t>Part to position the wheel on the good position relative to the hub and upright assembly</t>
+  </si>
+  <si>
+    <t>Lock nut washer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Loose</t>
+  </si>
+  <si>
+    <t>Front Wheel Spacer on hub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="13">
+  <numFmts count="15">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0.00,;&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -719,14 +736,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -865,8 +874,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,8 +962,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1243,19 +1284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1279,24 +1307,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="31"/>
+      </left>
+      <right style="thin">
+        <color indexed="31"/>
+      </right>
+      <top style="thin">
+        <color indexed="31"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="31"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="6">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="29">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1304,7 +1398,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1314,11 +1408,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1326,31 +1420,31 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1358,35 +1452,35 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="15" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1400,101 +1494,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1509,18 +1566,18 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,18 +1595,18 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,10 +1623,10 @@
     <xf numFmtId="11" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1581,17 +1638,72 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="28" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="25" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="25" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="42">
     <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2 2" xfId="21"/>
+    <cellStyle name="Comma 2 3" xfId="11"/>
     <cellStyle name="Cost_Green" xfId="4"/>
     <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Currency 2 2" xfId="30"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36"/>
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 2" xfId="12"/>
+    <cellStyle name="Milliers 2" xfId="16"/>
+    <cellStyle name="Milliers 2 2" xfId="38"/>
+    <cellStyle name="Milliers 3" xfId="22"/>
+    <cellStyle name="Milliers 3 2" xfId="20"/>
+    <cellStyle name="Milliers 4" xfId="33"/>
+    <cellStyle name="Milliers 5" xfId="17"/>
+    <cellStyle name="Monétaire 10" xfId="18"/>
+    <cellStyle name="Monétaire 10 2" xfId="29"/>
     <cellStyle name="Monétaire 2" xfId="3"/>
+    <cellStyle name="Monétaire 2 3" xfId="25"/>
+    <cellStyle name="Monétaire 2 3 3" xfId="40"/>
+    <cellStyle name="Monétaire 3" xfId="15"/>
+    <cellStyle name="Monétaire 35" xfId="27"/>
+    <cellStyle name="Monétaire 4 3" xfId="39"/>
+    <cellStyle name="Monétaire 7" xfId="24"/>
+    <cellStyle name="Neutre 2" xfId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="35"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="31"/>
+    <cellStyle name="Normal 2 2 4" xfId="28"/>
+    <cellStyle name="Normal 2 2 4 4" xfId="23"/>
     <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 3 2" xfId="32"/>
+    <cellStyle name="Normal 4" xfId="14"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 6" xfId="26"/>
     <cellStyle name="Normal_Sheet1" xfId="9"/>
+    <cellStyle name="Pourcentage 2" xfId="41"/>
+    <cellStyle name="Satisfaisant 2" xfId="34"/>
+    <cellStyle name="Style 1" xfId="13"/>
+    <cellStyle name="Style 1 2" xfId="37"/>
     <cellStyle name="TableStyleLight1" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1686,6 +1798,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558552</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9690100" y="2755900"/>
+          <a:ext cx="1980952" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Capture d’écran">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302AF336-9480-4529-90BA-583D1BC72A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="6087325" cy="8649907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1737,7 +1947,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295086</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="2667000"/>
+          <a:ext cx="1514286" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1792,7 +2045,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52833</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6138333" y="2476500"/>
+          <a:ext cx="666667" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1846,7 +2142,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6138333" y="2666999"/>
+          <a:ext cx="1164167" cy="1137405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1900,50 +2239,38 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>77407</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315743</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Capture d’écran">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302AF336-9480-4529-90BA-583D1BC72A9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="6087325" cy="8649907"/>
+          <a:off x="6043083" y="2571750"/>
+          <a:ext cx="1024827" cy="1164167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,23 +2358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2083,23 +2393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2288,335 +2581,335 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>144</v>
+      <c r="A1" s="87" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>77</v>
+      <c r="A3" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
-        <v>108</v>
+      <c r="A10" s="84" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="102"/>
+      <c r="A18" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="84"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>84</v>
+      <c r="A23" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
-        <v>108</v>
+      <c r="A31" s="84" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="102" t="s">
-        <v>82</v>
+      <c r="A39" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="102" t="s">
-        <v>105</v>
+      <c r="A45" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="102" t="s">
-        <v>89</v>
+      <c r="A57" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="102" t="s">
-        <v>93</v>
+      <c r="A63" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="84" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="102" t="s">
-        <v>110</v>
+      <c r="A80" s="84" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="105" t="s">
-        <v>116</v>
+      <c r="A82" s="87" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2927,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,29 +2954,29 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="74">
@@ -2693,7 +2986,7 @@
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -2701,11 +2994,11 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="103" t="s">
-        <v>103</v>
+      <c r="E3" s="85" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -2714,24 +3007,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155" t="str">
+      <c r="B4" s="134" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -2739,7 +3032,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -2749,14 +3042,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -2764,12 +3057,12 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="74">
@@ -2779,11 +3072,11 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -2792,7 +3085,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -2802,7 +3095,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -2823,7 +3116,7 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16"/>
@@ -2842,7 +3135,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -2859,74 +3152,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="D10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="E10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="G10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="I10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="J10" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="129">
         <f>J11*K11*L11</f>
         <v>5.7959846999999995E-2</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="111">
+        <v>165</v>
+      </c>
+      <c r="J11" s="93">
         <f>(55/2*10^-3)^2*3.14</f>
         <v>2.374625E-3</v>
       </c>
@@ -2958,10 +3251,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="105">
         <f>N11*M11</f>
         <v>0.24343135739999999</v>
       </c>
@@ -2985,31 +3278,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="124" t="s">
+      <c r="F14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="124" t="s">
+      <c r="H14" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -3020,26 +3313,26 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="130">
         <v>10</v>
       </c>
-      <c r="B15" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="153">
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="132">
         <v>1.3</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="151">
+      <c r="E15" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="130">
         <v>1</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151">
+      <c r="G15" s="130"/>
+      <c r="H15" s="130">
         <v>1</v>
       </c>
       <c r="I15" s="32">
@@ -3054,28 +3347,28 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="130">
         <v>20</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="153">
+      <c r="B16" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="132">
         <v>0.04</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="151">
+      <c r="E16" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="130">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G16" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="151">
+      <c r="G16" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="130">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -3090,26 +3383,26 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151">
+      <c r="A17" s="130">
         <v>30</v>
       </c>
-      <c r="B17" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="153">
+      <c r="B17" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="132">
         <v>0.65</v>
       </c>
-      <c r="E17" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="151">
+      <c r="E17" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="130">
         <v>1</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130">
         <v>1</v>
       </c>
       <c r="I17" s="31">
@@ -3124,28 +3417,28 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151">
+      <c r="A18" s="130">
         <v>40</v>
       </c>
-      <c r="B18" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="153">
+      <c r="B18" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="132">
         <v>0.04</v>
       </c>
-      <c r="E18" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="151">
+      <c r="E18" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="130">
         <v>1.5</v>
       </c>
-      <c r="G18" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="151">
+      <c r="G18" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="130">
         <v>1</v>
       </c>
       <c r="I18" s="31">
@@ -3167,10 +3460,10 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="128" t="s">
+      <c r="H19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="126">
+      <c r="I19" s="105">
         <f>SUM(I15:I18)</f>
         <v>2.3780000000000001</v>
       </c>
@@ -3230,6 +3523,7 @@
     <brk id="21" max="16383" man="1"/>
     <brk id="55" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3249,10 +3543,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="155" t="str">
+      <c r="A1" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="134" t="str">
         <f>WT_0200_005</f>
         <v>WT 0200 005</v>
       </c>
@@ -3277,7 +3571,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,29 +3598,29 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="74">
@@ -3336,7 +3630,7 @@
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -3344,11 +3638,11 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="155" t="s">
-        <v>103</v>
+      <c r="E3" s="134" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -3357,24 +3651,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155" t="str">
+      <c r="B4" s="134" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -3382,7 +3676,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -3392,14 +3686,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -3407,12 +3701,12 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="74">
@@ -3422,11 +3716,11 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -3435,7 +3729,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -3445,7 +3739,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -3466,7 +3760,7 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16"/>
@@ -3485,7 +3779,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3502,74 +3796,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="D10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="E10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="G10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="I10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="J10" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
-      <c r="B11" s="157" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="153">
+      <c r="B11" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="132">
         <v>2.25</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="129">
         <f>J11*K11*L11</f>
         <v>0.20096000000000003</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="111">
+        <v>160</v>
+      </c>
+      <c r="J11" s="93">
         <f>0.16*0.16</f>
         <v>2.5600000000000001E-2</v>
       </c>
@@ -3601,10 +3895,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="105">
         <f>N11*M11</f>
         <v>0.45216000000000006</v>
       </c>
@@ -3628,31 +3922,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="124" t="s">
+      <c r="F14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="124" t="s">
+      <c r="H14" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -3663,28 +3957,28 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="130">
         <v>10</v>
       </c>
-      <c r="B15" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="153">
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="132">
         <v>1.3</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="151">
+      <c r="E15" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="130">
         <v>1</v>
       </c>
-      <c r="G15" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="151">
+      <c r="G15" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="130">
         <v>0.5</v>
       </c>
       <c r="I15" s="32">
@@ -3699,24 +3993,24 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="130">
         <v>20</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153">
+      <c r="B16" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132">
         <v>0.01</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="151">
+      <c r="E16" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="130">
         <v>286.8</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151">
+      <c r="G16" s="130"/>
+      <c r="H16" s="130">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -3738,10 +4032,10 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="105">
         <f>SUM(I15:I16)</f>
         <v>3.5180000000000002</v>
       </c>
@@ -3801,6 +4095,7 @@
     <brk id="19" max="16383" man="1"/>
     <brk id="53" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3822,10 +4117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="155" t="str">
+      <c r="A1" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="134" t="str">
         <f>WT_0200_006</f>
         <v>WT 0200 006</v>
       </c>
@@ -3848,7 +4143,7 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
@@ -3876,12 +4171,12 @@
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
-        <v>55</v>
+      <c r="B1" s="90" t="s">
+        <v>37</v>
       </c>
       <c r="D1" s="43"/>
       <c r="M1" s="55" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N1" s="44"/>
       <c r="O1" s="54" t="e">
@@ -3891,17 +4186,17 @@
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>142</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="14"/>
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B3" s="53">
         <v>2018</v>
@@ -3913,12 +4208,12 @@
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="88">
         <v>81</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="43" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -3930,403 +4225,403 @@
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M6" s="46" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O6" s="46" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130" t="str">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C7" s="131" t="e">
+      <c r="C7" s="110" t="e">
         <f>EL_A0001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="132" t="str">
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="133" t="e">
+      <c r="G7" s="110"/>
+      <c r="H7" s="112" t="e">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="134" t="e">
+      <c r="I7" s="113" t="e">
         <f>BR_A0001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J7" s="135" t="e">
+      <c r="J7" s="114" t="e">
         <f>BR_A0001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="135" t="e">
+      <c r="K7" s="114" t="e">
         <f>BR_A0001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L7" s="135" t="e">
+      <c r="L7" s="114" t="e">
         <f>BR_A0001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="135" t="e">
+      <c r="M7" s="114" t="e">
         <f>BR_A0001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N7" s="136" t="e">
+      <c r="N7" s="115" t="e">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
         <v>#NAME?</v>
       </c>
-      <c r="O7" s="137"/>
+      <c r="O7" s="116"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139" t="str">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C8" s="147" t="e">
+      <c r="C8" s="126" t="e">
         <f>EL_01001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="140" t="str">
+      <c r="E8" s="119" t="str">
         <f>F7</f>
         <v>Front Hubs</v>
       </c>
-      <c r="F8" s="141" t="str">
+      <c r="F8" s="120" t="str">
         <f>'WT 0200 001'!B5</f>
         <v>Front Hub</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="142" t="e">
+      <c r="G8" s="119"/>
+      <c r="H8" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="143" t="e">
+      <c r="I8" s="122" t="e">
         <f>BR_A0001_q*BR_01001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="144" t="e">
+      <c r="J8" s="123" t="e">
         <f>BR_01001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="144" t="e">
+      <c r="K8" s="123" t="e">
         <f>BR_01001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="144" t="e">
+      <c r="L8" s="123" t="e">
         <f>BR_01001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="144" t="e">
+      <c r="M8" s="123" t="e">
         <f>BR_01001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="145" t="e">
+      <c r="N8" s="124" t="e">
         <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="O8" s="146"/>
+      <c r="O8" s="125"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139" t="str">
+      <c r="A9" s="117"/>
+      <c r="B9" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="142">
+      <c r="E9" s="119"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="148"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="145">
+      <c r="I9" s="127"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="146"/>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
-      <c r="B10" s="139" t="str">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="142">
+      <c r="E10" s="119"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="148"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="145">
+      <c r="I10" s="127"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="146"/>
+      <c r="O10" s="125"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
-      <c r="B11" s="139" t="str">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="142">
+      <c r="E11" s="119"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145">
+      <c r="I11" s="127"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="146"/>
+      <c r="O11" s="125"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="138"/>
-      <c r="B12" s="139" t="str">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="142">
+      <c r="E12" s="119"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="148"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="145">
+      <c r="I12" s="127"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="146"/>
+      <c r="O12" s="125"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139" t="str">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="142">
+      <c r="E13" s="119"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="148"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145">
+      <c r="I13" s="127"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="146"/>
+      <c r="O13" s="125"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="138"/>
-      <c r="B14" s="139" t="str">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="142">
+      <c r="E14" s="119"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="148"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145">
+      <c r="I14" s="127"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="146"/>
+      <c r="O14" s="125"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="138"/>
-      <c r="B15" s="139" t="str">
+      <c r="A15" s="117"/>
+      <c r="B15" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140" t="s">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="142">
+      <c r="E15" s="119"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="148"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="145">
+      <c r="I15" s="127"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="146"/>
+      <c r="O15" s="125"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="138"/>
-      <c r="B16" s="139" t="str">
+      <c r="A16" s="117"/>
+      <c r="B16" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="142">
+      <c r="E16" s="119"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="148"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="145">
+      <c r="I16" s="127"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="146"/>
+      <c r="O16" s="125"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="139" t="str">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140" t="s">
+      <c r="C17" s="119"/>
+      <c r="D17" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="142">
+      <c r="E17" s="119"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="145">
+      <c r="I17" s="127"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="146"/>
+      <c r="O17" s="125"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -4338,28 +4633,28 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="41" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="110" t="e">
+      <c r="J18" s="92" t="e">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="110" t="e">
+      <c r="K18" s="92" t="e">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L18" s="110" t="e">
+      <c r="L18" s="92" t="e">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M18" s="110" t="e">
+      <c r="M18" s="92" t="e">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N18" s="110" t="e">
+      <c r="N18" s="92" t="e">
         <f>SUM(N7:N17)</f>
         <v>#NAME?</v>
       </c>
@@ -6605,10 +6900,10 @@
     <tabColor rgb="FF33CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,43 +6941,43 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="109" t="e">
-        <f>WT_A0200_pa+WT+BR_A0001_p+BR_A0001_f+BR_A0001_t</f>
-        <v>#NAME?</v>
+      <c r="N2" s="91">
+        <f>WT_A0200_pa+WT_A0200_m+WT_A0200_p+WT_A0200_f</f>
+        <v>341.7412675152284</v>
       </c>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -6694,20 +6989,20 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>2</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -6716,7 +7011,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -6726,11 +7021,11 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -6739,22 +7034,22 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="95" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="113" t="s">
+      <c r="M5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="74" t="e">
+      <c r="N5" s="74">
         <f>N2*N3</f>
-        <v>#NAME?</v>
+        <v>683.4825350304568</v>
       </c>
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6767,7 +7062,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="95" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -6777,11 +7072,11 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -6815,19 +7110,19 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="94" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="56"/>
@@ -6845,7 +7140,7 @@
       <c r="A10" s="72">
         <v>10</v>
       </c>
-      <c r="B10" s="101" t="str">
+      <c r="B10" s="83" t="str">
         <f>'WT 0200 001'!B5</f>
         <v>Front Hub</v>
       </c>
@@ -6853,7 +7148,7 @@
         <f>'WT 0200 001'!N2</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="82">
         <f>'WT 0200 001'!N3</f>
         <v>1</v>
       </c>
@@ -6878,7 +7173,7 @@
       </c>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
-      <c r="D11" s="100"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="74"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -6895,14 +7190,14 @@
       <c r="A12" s="72">
         <v>30</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>184</v>
+      <c r="B12" s="85" t="s">
+        <v>166</v>
       </c>
       <c r="C12" s="74">
         <f>'WT 0200 003'!N2</f>
         <v>20.676657798400001</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="82">
         <f>'WT 0200 003'!N3</f>
         <v>1</v>
       </c>
@@ -6925,14 +7220,14 @@
       <c r="A13" s="72">
         <v>40</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>174</v>
+      <c r="B13" s="83" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="74">
         <f>'WT 0200 004'!N2</f>
         <v>0.95013112</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="82">
         <f>'WT 0200 004'!N3</f>
         <v>1</v>
       </c>
@@ -6955,14 +7250,14 @@
       <c r="A14" s="72">
         <v>50</v>
       </c>
-      <c r="B14" s="156" t="s">
-        <v>170</v>
+      <c r="B14" s="135" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="74">
         <f>'WT 0200 005'!N2</f>
         <v>2.6214313574000001</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="82">
         <f>'WT 0200 005'!N3</f>
         <v>1</v>
       </c>
@@ -6985,14 +7280,14 @@
       <c r="A15" s="72">
         <v>60</v>
       </c>
-      <c r="B15" s="101" t="s">
-        <v>175</v>
+      <c r="B15" s="83" t="s">
+        <v>157</v>
       </c>
       <c r="C15" s="74">
         <f>'WT 0200 006'!N2</f>
         <v>3.9701600000000004</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="82">
         <f>'WT 0200 006'!N3</f>
         <v>1</v>
       </c>
@@ -7015,10 +7310,10 @@
       <c r="A16" s="63"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="96">
         <f>SUM(E10:E15)</f>
         <v>92.376897761400002</v>
       </c>
@@ -7051,46 +7346,46 @@
       <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="D18" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="E18" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="F18" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="G18" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="H18" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="I18" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="J18" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="113" t="s">
+      <c r="K18" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="L18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="94" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="62"/>
@@ -7099,8 +7394,8 @@
       <c r="A19" s="72">
         <v>10</v>
       </c>
-      <c r="B19" s="158" t="s">
-        <v>186</v>
+      <c r="B19" s="137" t="s">
+        <v>168</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="74">
@@ -7111,19 +7406,19 @@
         <v>72</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="72">
         <v>17</v>
       </c>
-      <c r="H19" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76">
+      <c r="H19" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75">
         <v>2</v>
       </c>
       <c r="N19" s="74">
@@ -7133,41 +7428,62 @@
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="141">
         <v>20</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="B20" s="142" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="140">
+        <f>0.126*E20+1.57</f>
+        <v>5.98</v>
+      </c>
+      <c r="E20" s="141">
+        <v>35</v>
+      </c>
+      <c r="F20" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="141"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="146">
+        <v>1</v>
+      </c>
       <c r="N20" s="74">
         <f>M20*D20</f>
+        <v>5.98</v>
+      </c>
+      <c r="O20" s="66"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="141">
+        <v>30</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="140">
         <v>0</v>
       </c>
-      <c r="O20" s="66"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="76"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="146"/>
       <c r="N21" s="74">
         <f>M21*D21</f>
         <v>0</v>
@@ -7175,79 +7491,106 @@
       <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="74">
-        <f>M22*D22</f>
-        <v>0</v>
+      <c r="A22" s="67"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="96">
+        <f>SUM(N19:N21)</f>
+        <v>243.47088403557726</v>
       </c>
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="74">
-        <f>M23*D23</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+    <row r="24" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="115">
-        <f>SUM(N19:N23)</f>
-        <v>237.49088403557727</v>
-      </c>
-      <c r="O24" s="62"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="68"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="A25" s="139">
+        <v>10</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="138">
+        <v>0.06</v>
+      </c>
+      <c r="E25" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="130">
+        <v>1</v>
+      </c>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130">
+        <v>1</v>
+      </c>
+      <c r="I25" s="74">
+        <f t="shared" ref="I25" si="0">IF(H25="",D25*F25,D25*F25*H25)</f>
+        <v>0.06</v>
+      </c>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
@@ -7255,65 +7598,66 @@
       <c r="N25" s="56"/>
       <c r="O25" s="62"/>
     </row>
-    <row r="26" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="113" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="130">
+        <v>20</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="152">
+        <v>0.19</v>
+      </c>
+      <c r="E26" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="68"/>
+      <c r="F26" s="130">
+        <v>2</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130">
+        <v>1</v>
+      </c>
+      <c r="I26" s="74">
+        <f t="shared" ref="I26:I28" si="1">IF(H26="",D26*F26,D26*F26*H26)</f>
+        <v>0.38</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="62"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
-        <v>10</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="74">
-        <v>0.13</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="87">
-        <v>2</v>
-      </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="A27" s="139">
+        <v>30</v>
+      </c>
+      <c r="B27" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="138">
+        <v>0.06</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="130">
+        <v>1</v>
+      </c>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130">
+        <v>1</v>
+      </c>
       <c r="I27" s="74">
-        <f t="shared" ref="I27:I32" si="0">IF(H27="",D27*F27,D27*F27*H27)</f>
-        <v>0.26</v>
+        <f t="shared" si="1"/>
+        <v>0.06</v>
       </c>
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
@@ -7322,146 +7666,202 @@
       <c r="N27" s="56"/>
       <c r="O27" s="62"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
-        <v>20</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="72" t="s">
+    <row r="28" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="139">
         <v>40</v>
       </c>
-      <c r="D28" s="74">
+      <c r="B28" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="138">
         <v>0.06</v>
       </c>
-      <c r="E28" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="87">
+      <c r="E28" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="130">
         <v>1</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130">
+        <v>1</v>
+      </c>
       <c r="I28" s="74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="62"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
-        <v>30</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="87">
-        <v>2</v>
-      </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="139">
+        <v>50</v>
+      </c>
+      <c r="B29" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="138">
+        <v>0.06</v>
+      </c>
+      <c r="E29" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="130">
+        <v>1</v>
+      </c>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130">
+        <v>1</v>
+      </c>
       <c r="I29" s="74">
-        <f t="shared" si="0"/>
+        <f>IF(H29="",D29*F29,D29*F29*H29)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="68"/>
+    </row>
+    <row r="30" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="130">
+        <v>80</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="150">
+        <v>0.13</v>
+      </c>
+      <c r="E30" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="148">
         <v>1</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="62"/>
-    </row>
-    <row r="30" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130">
+        <v>1</v>
+      </c>
       <c r="I30" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(H30="",D30*F30,D30*F30*H30)</f>
+        <v>0.13</v>
       </c>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
-      <c r="O30" s="65"/>
-    </row>
-    <row r="31" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="O30" s="68"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="130">
+        <v>60</v>
+      </c>
+      <c r="B31" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="138">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="130">
+        <v>15.07</v>
+      </c>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130">
+        <v>1</v>
+      </c>
       <c r="I31" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(H31="",D31*F31,D31*F31*H31)</f>
+        <v>0.3014</v>
       </c>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
-      <c r="O31" s="68"/>
-    </row>
-    <row r="32" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
+      <c r="O31" s="65"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="139">
+        <v>70</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="138">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="130">
+        <v>4</v>
+      </c>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130">
+        <v>1</v>
+      </c>
       <c r="I32" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="65"/>
+        <f>IF(H32="",D32*F32,D32*F32*H32)</f>
+        <v>0.52</v>
+      </c>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="62"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="115">
-        <f>SUM(I27:I29)</f>
-        <v>1.32</v>
+      <c r="A33" s="130">
+        <v>80</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="150">
+        <v>0.06</v>
+      </c>
+      <c r="E33" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="148">
+        <v>1</v>
+      </c>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130">
+        <v>1</v>
+      </c>
+      <c r="I33" s="74">
+        <f>IF(H33="",D33*F33,D33*F33*H33)</f>
+        <v>0.06</v>
       </c>
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
@@ -7471,16 +7871,20 @@
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="96">
+        <f>SUM(I25:I33)</f>
+        <v>1.6314000000000002</v>
+      </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -7488,36 +7892,15 @@
       <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="113" t="s">
-        <v>18</v>
-      </c>
+      <c r="A35" s="63"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
@@ -7525,36 +7908,35 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="72">
-        <v>10</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="89">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="90">
-        <v>8</v>
-      </c>
-      <c r="F36" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="90">
-        <v>35</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="91">
-        <v>2</v>
-      </c>
-      <c r="J36" s="74">
-        <f>I36*D36</f>
-        <v>0.28000000000000003</v>
+      <c r="A36" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="94" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
@@ -7563,32 +7945,37 @@
       <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="72">
-        <v>20</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="E37" s="72">
-        <v>8</v>
-      </c>
-      <c r="F37" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="91">
-        <v>2</v>
-      </c>
-      <c r="J37" s="74">
-        <f>I37*D37</f>
-        <v>0.02</v>
+      <c r="A37" s="130">
+        <v>10</v>
+      </c>
+      <c r="B37" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="152">
+        <f>1.25/105154*E37^2*G37*SQRT(G37)+(0.005*EXP(0.319*E37))</f>
+        <v>1.0655214295627982</v>
+      </c>
+      <c r="E37" s="130">
+        <v>12</v>
+      </c>
+      <c r="F37" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="130">
+        <v>62</v>
+      </c>
+      <c r="H37" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="154">
+        <v>4</v>
+      </c>
+      <c r="J37" s="152">
+        <f>D37*I37</f>
+        <v>4.2620857182511926</v>
       </c>
       <c r="K37" s="56"/>
       <c r="L37" s="56"/>
@@ -7597,32 +7984,20 @@
       <c r="O37" s="62"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
-        <v>30</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="72">
-        <v>12</v>
-      </c>
-      <c r="F38" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="91">
-        <v>12</v>
-      </c>
-      <c r="J38" s="74">
-        <f>I38*D38</f>
-        <v>0.12</v>
+      <c r="A38" s="67"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="96">
+        <f>SUM(J37:J37)</f>
+        <v>4.2620857182511926</v>
       </c>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
@@ -7631,271 +8006,54 @@
       <c r="O38" s="62"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="72">
-        <v>40</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="94">
-        <v>0.04</v>
-      </c>
-      <c r="E39" s="79">
-        <v>12</v>
-      </c>
-      <c r="F39" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="96">
-        <v>6</v>
-      </c>
-      <c r="J39" s="74">
-        <f>I39*D39</f>
-        <v>0.24</v>
-      </c>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
       <c r="O39" s="62"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="62"/>
-    </row>
-    <row r="41" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="65"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="62"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="115">
-        <f>SUM(J36:J40)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="62"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="62"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="62"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="72">
-        <v>10</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="74">
-        <v>500</v>
-      </c>
-      <c r="E46" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="72">
-        <v>30</v>
-      </c>
-      <c r="G46" s="72">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="72">
-        <v>1</v>
-      </c>
-      <c r="I46" s="74">
-        <f>D46*F46/G46*H46</f>
-        <v>5</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="62"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="62"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="118">
-        <f>SUM(I46:I47)</f>
-        <v>5</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="62"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="71"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="71"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7910,9 +8068,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="49" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -7925,7 +8080,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,29 +8115,29 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="74">
@@ -7992,7 +8147,7 @@
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -8000,11 +8155,11 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="103" t="s">
-        <v>103</v>
+      <c r="E3" s="85" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -8013,24 +8168,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155" t="str">
+      <c r="B4" s="134" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -8038,7 +8193,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -8048,14 +8203,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -8063,12 +8218,12 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="74">
@@ -8078,11 +8233,11 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -8091,7 +8246,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -8101,7 +8256,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -8122,11 +8277,11 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -8143,7 +8298,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -8160,74 +8315,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="D10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="E10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="G10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="I10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="J10" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="129">
         <f>J11*K11*L11</f>
         <v>3.2740660680000002</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="111">
+        <v>137</v>
+      </c>
+      <c r="J11" s="93">
         <f>(65*10^-3)^2*3.14</f>
         <v>1.3266500000000002E-2</v>
       </c>
@@ -8259,10 +8414,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="105">
         <f>N11*M11</f>
         <v>13.751077485600002</v>
       </c>
@@ -8286,31 +8441,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="124" t="s">
+      <c r="F14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="124" t="s">
+      <c r="H14" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -8321,26 +8476,26 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="130">
         <v>10</v>
       </c>
-      <c r="B15" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="153">
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="132">
         <v>1.3</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="151">
+      <c r="E15" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="130">
         <v>1</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151">
+      <c r="G15" s="130"/>
+      <c r="H15" s="130">
         <v>1</v>
       </c>
       <c r="I15" s="32">
@@ -8355,29 +8510,29 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="130">
         <v>20</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="153">
+      <c r="B16" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="132">
         <v>0.04</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="151">
+      <c r="E16" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="130">
         <f>13.2+898.7+18.7</f>
         <v>930.60000000000014</v>
       </c>
-      <c r="G16" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="151">
+      <c r="G16" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="130">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -8392,26 +8547,26 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151">
+      <c r="A17" s="130">
         <v>30</v>
       </c>
-      <c r="B17" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="153">
+      <c r="B17" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="132">
         <v>0.65</v>
       </c>
-      <c r="E17" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="151">
+      <c r="E17" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="130">
         <v>1</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130">
         <v>1</v>
       </c>
       <c r="I17" s="31">
@@ -8426,29 +8581,29 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151">
+      <c r="A18" s="130">
         <v>40</v>
       </c>
-      <c r="B18" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="153">
+      <c r="B18" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="132">
         <v>0.04</v>
       </c>
-      <c r="E18" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="151">
+      <c r="E18" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="130">
         <f>13.2+53.1-2.8</f>
         <v>63.5</v>
       </c>
-      <c r="G18" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="151">
+      <c r="G18" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="130">
         <v>1</v>
       </c>
       <c r="I18" s="31">
@@ -8463,24 +8618,24 @@
       <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151">
+      <c r="A19" s="130">
         <v>50</v>
       </c>
-      <c r="B19" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153">
+      <c r="B19" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132">
         <v>1.3</v>
       </c>
-      <c r="E19" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="151">
+      <c r="E19" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="130">
         <v>1</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151">
+      <c r="G19" s="130"/>
+      <c r="H19" s="130">
         <v>1</v>
       </c>
       <c r="I19" s="31">
@@ -8495,28 +8650,28 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151">
+      <c r="A20" s="130">
         <v>60</v>
       </c>
-      <c r="B20" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="153">
+      <c r="B20" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="132">
         <v>0.04</v>
       </c>
-      <c r="E20" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="151">
+      <c r="E20" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="130">
         <v>149</v>
       </c>
-      <c r="G20" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="151">
+      <c r="G20" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="130">
         <v>1</v>
       </c>
       <c r="I20" s="31">
@@ -8531,24 +8686,24 @@
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151">
+      <c r="A21" s="130">
         <v>70</v>
       </c>
-      <c r="B21" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153">
+      <c r="B21" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132">
         <v>0.65</v>
       </c>
-      <c r="E21" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="151">
+      <c r="E21" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="130">
         <v>1</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151">
+      <c r="G21" s="130"/>
+      <c r="H21" s="130">
         <v>1</v>
       </c>
       <c r="I21" s="31">
@@ -8563,29 +8718,29 @@
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="151">
+      <c r="A22" s="130">
         <v>80</v>
       </c>
-      <c r="B22" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="153">
+      <c r="B22" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="132">
         <v>0.04</v>
       </c>
-      <c r="E22" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="151">
+      <c r="E22" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="130">
         <f>0.48*0.7</f>
         <v>0.33599999999999997</v>
       </c>
-      <c r="G22" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="151">
+      <c r="G22" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="130">
         <v>1</v>
       </c>
       <c r="I22" s="31">
@@ -8600,28 +8755,28 @@
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="151">
+      <c r="A23" s="130">
         <v>90</v>
       </c>
-      <c r="B23" s="154" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="153">
+      <c r="B23" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="132">
         <v>0.1</v>
       </c>
-      <c r="E23" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="151">
+      <c r="E23" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="130">
         <v>6</v>
       </c>
-      <c r="G23" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="151">
+      <c r="G23" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="130">
         <v>1</v>
       </c>
       <c r="I23" s="31">
@@ -8636,28 +8791,28 @@
       <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="151">
+      <c r="A24" s="130">
         <v>100</v>
       </c>
-      <c r="B24" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="152" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="153">
+      <c r="B24" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="132">
         <v>0.1</v>
       </c>
-      <c r="E24" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="151">
+      <c r="E24" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="130">
         <v>1.7</v>
       </c>
-      <c r="G24" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="151">
+      <c r="G24" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="130">
         <v>1</v>
       </c>
       <c r="I24" s="31">
@@ -8679,10 +8834,10 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="126">
+      <c r="I25" s="105">
         <f>SUM(I15:I24)</f>
         <v>50.407440000000001</v>
       </c>
@@ -8742,6 +8897,7 @@
     <brk id="27" max="16383" man="1"/>
     <brk id="61" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8761,10 +8917,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="155" t="str">
+      <c r="A1" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="134" t="str">
         <f>WT_0200_001</f>
         <v>WT 0200 001</v>
       </c>
@@ -8789,7 +8945,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,29 +8974,29 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="74">
@@ -8850,7 +9006,7 @@
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -8858,11 +9014,11 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="155" t="s">
-        <v>103</v>
+      <c r="E3" s="134" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -8871,24 +9027,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155" t="str">
+      <c r="B4" s="134" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -8896,7 +9052,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -8906,14 +9062,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -8921,12 +9077,12 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="74">
@@ -8936,11 +9092,11 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -8949,7 +9105,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -8959,7 +9115,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -8980,11 +9136,11 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -9001,7 +9157,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -9018,74 +9174,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="D10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="E10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="G10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="I10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="J10" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="129">
         <f>J11*K11*L11</f>
         <v>0.86348995200000023</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="111">
+        <v>137</v>
+      </c>
+      <c r="J11" s="93">
         <f>(65*10^-3)^2*3.14</f>
         <v>1.3266500000000002E-2</v>
       </c>
@@ -9117,10 +9273,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="105">
         <f>N11*M11</f>
         <v>3.626657798400001</v>
       </c>
@@ -9144,31 +9300,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="124" t="s">
+      <c r="F14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="124" t="s">
+      <c r="H14" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -9179,26 +9335,26 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="130">
         <v>10</v>
       </c>
-      <c r="B15" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="153">
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="132">
         <v>1.3</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="151">
+      <c r="E15" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="130">
         <v>1</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151">
+      <c r="G15" s="130"/>
+      <c r="H15" s="130">
         <v>1</v>
       </c>
       <c r="I15" s="32">
@@ -9213,28 +9369,28 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="130">
         <v>20</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="153">
+      <c r="B16" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="132">
         <v>0.04</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="151">
+      <c r="E16" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="130">
         <v>112</v>
       </c>
-      <c r="G16" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="151">
+      <c r="G16" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="130">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -9249,26 +9405,26 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151">
+      <c r="A17" s="130">
         <v>30</v>
       </c>
-      <c r="B17" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="153">
+      <c r="B17" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="132">
         <v>0.65</v>
       </c>
-      <c r="E17" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="151">
+      <c r="E17" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="130">
         <v>1</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130">
         <v>1</v>
       </c>
       <c r="I17" s="31">
@@ -9283,28 +9439,28 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151">
+      <c r="A18" s="130">
         <v>40</v>
       </c>
-      <c r="B18" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="153">
+      <c r="B18" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="132">
         <v>0.04</v>
       </c>
-      <c r="E18" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="151">
+      <c r="E18" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="130">
         <v>84</v>
       </c>
-      <c r="G18" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="151">
+      <c r="G18" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="130">
         <v>1</v>
       </c>
       <c r="I18" s="31">
@@ -9319,24 +9475,24 @@
       <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151">
+      <c r="A19" s="130">
         <v>50</v>
       </c>
-      <c r="B19" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153">
+      <c r="B19" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132">
         <v>1.3</v>
       </c>
-      <c r="E19" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="151">
+      <c r="E19" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="130">
         <v>1</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151">
+      <c r="G19" s="130"/>
+      <c r="H19" s="130">
         <v>1</v>
       </c>
       <c r="I19" s="31">
@@ -9351,28 +9507,28 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151">
+      <c r="A20" s="130">
         <v>60</v>
       </c>
-      <c r="B20" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="153">
+      <c r="B20" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="132">
         <v>0.04</v>
       </c>
-      <c r="E20" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="151">
+      <c r="E20" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="130">
         <v>149</v>
       </c>
-      <c r="G20" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="151">
+      <c r="G20" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="130">
         <v>1</v>
       </c>
       <c r="I20" s="31">
@@ -9394,10 +9550,10 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="126">
+      <c r="I21" s="105">
         <f>SUM(I15:I20)</f>
         <v>17.05</v>
       </c>
@@ -9457,6 +9613,7 @@
     <brk id="23" max="16383" man="1"/>
     <brk id="57" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9468,7 +9625,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9478,10 +9635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="155" t="str">
+      <c r="A1" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="134" t="str">
         <f>WT_0200_003</f>
         <v>WT 0200 003</v>
       </c>
@@ -9505,8 +9662,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9533,29 +9690,29 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="97">
+      <c r="K2" s="79">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="74">
@@ -9565,7 +9722,7 @@
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -9573,11 +9730,11 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="103" t="s">
-        <v>103</v>
+      <c r="E3" s="85" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -9586,24 +9743,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155" t="str">
+      <c r="B4" s="134" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -9611,7 +9768,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -9621,14 +9778,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -9636,12 +9793,12 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="74">
@@ -9651,11 +9808,11 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -9664,7 +9821,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -9674,7 +9831,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -9695,7 +9852,7 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16"/>
@@ -9714,7 +9871,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -9731,74 +9888,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="D10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="E10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="F10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="G10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="I10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="J10" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="129">
         <f>J11*K11*L11</f>
         <v>1.0983600000000001E-2</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="111">
+        <v>163</v>
+      </c>
+      <c r="J11" s="93">
         <f>(45*10^(-3))^2</f>
         <v>2.0249999999999999E-3</v>
       </c>
@@ -9830,10 +9987,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="105">
         <f>N11*M11</f>
         <v>4.6131120000000005E-2</v>
       </c>
@@ -9857,31 +10014,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="124" t="s">
+      <c r="F14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="124" t="s">
+      <c r="H14" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -9892,28 +10049,28 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="130">
         <v>10</v>
       </c>
-      <c r="B15" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="153">
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="132">
         <v>1.3</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="151">
+      <c r="E15" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="130">
         <v>1</v>
       </c>
-      <c r="G15" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="151">
+      <c r="G15" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="130">
         <v>0.5</v>
       </c>
       <c r="I15" s="32">
@@ -9928,24 +10085,24 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="130">
         <v>20</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153">
+      <c r="B16" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132">
         <v>0.01</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="151">
+      <c r="E16" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="130">
         <v>25.4</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151">
+      <c r="G16" s="130"/>
+      <c r="H16" s="130">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -9967,10 +10124,10 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="105">
         <f>SUM(I15:I16)</f>
         <v>0.90400000000000003</v>
       </c>
@@ -10030,6 +10187,7 @@
     <brk id="19" max="16383" man="1"/>
     <brk id="53" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10049,10 +10207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="155" t="str">
+      <c r="A1" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="134" t="str">
         <f>WT_0200_004</f>
         <v>WT 0200 004</v>
       </c>

--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0200 (Front Hub Assembly).xlsx
@@ -10,53 +10,53 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="BOM" sheetId="8" r:id="rId2"/>
     <sheet name="WT A0200" sheetId="1" r:id="rId3"/>
-    <sheet name="WT 0200 001" sheetId="2" r:id="rId4"/>
-    <sheet name="WT 0200 001 Drawing" sheetId="9" r:id="rId5"/>
-    <sheet name="WT 0200 003" sheetId="18" r:id="rId6"/>
-    <sheet name="WT 0200 003 Drawing" sheetId="19" r:id="rId7"/>
-    <sheet name="WT 0200 004" sheetId="14" r:id="rId8"/>
-    <sheet name="WT 0200 004 Drawing" sheetId="15" r:id="rId9"/>
-    <sheet name="WT 0200 005" sheetId="12" r:id="rId10"/>
-    <sheet name="WT 0200 005 Drawing" sheetId="13" r:id="rId11"/>
-    <sheet name="WT 0200 006" sheetId="16" r:id="rId12"/>
-    <sheet name="WT 0200 006 Drawing" sheetId="17" r:id="rId13"/>
+    <sheet name="WT 02001" sheetId="2" r:id="rId4"/>
+    <sheet name="WT 02001 Drawing" sheetId="9" r:id="rId5"/>
+    <sheet name="WT 02002" sheetId="12" r:id="rId6"/>
+    <sheet name="WT 02002 Drawing" sheetId="13" r:id="rId7"/>
+    <sheet name="WT 02003" sheetId="18" r:id="rId8"/>
+    <sheet name="WT 02003 Drawing" sheetId="19" r:id="rId9"/>
+    <sheet name="WT 02004" sheetId="14" r:id="rId10"/>
+    <sheet name="WT 02004 Drawing" sheetId="15" r:id="rId11"/>
+    <sheet name="WT 02005" sheetId="16" r:id="rId12"/>
+    <sheet name="WT 02005 Drawing" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
     <definedName name="CompCode" localSheetId="1">BOM!$B$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">BOM!$6:$6</definedName>
     <definedName name="Uni" localSheetId="1">BOM!#REF!</definedName>
-    <definedName name="WT_0200_001">'WT 0200 001'!$B$6</definedName>
-    <definedName name="WT_0200_001_m">'WT 0200 001'!$N$12</definedName>
-    <definedName name="WT_0200_001_p">'WT 0200 001'!$I$25</definedName>
-    <definedName name="WT_0200_001_q">'WT 0200 001'!$N$3</definedName>
-    <definedName name="WT_0200_003">'WT 0200 003'!$B$6</definedName>
-    <definedName name="WT_0200_003_m">'WT 0200 003'!$N$12</definedName>
-    <definedName name="WT_0200_003_p">'WT 0200 003'!$I$21</definedName>
-    <definedName name="WT_0200_003_q">'WT 0200 003'!$N$3</definedName>
-    <definedName name="WT_0200_004">'WT 0200 004'!$B$6</definedName>
-    <definedName name="WT_0200_004_m">'WT 0200 004'!$N$12</definedName>
-    <definedName name="WT_0200_004_p">'WT 0200 004'!$I$17</definedName>
-    <definedName name="WT_0200_004_q">'WT 0200 004'!$N$3</definedName>
-    <definedName name="WT_0200_005">'WT 0200 005'!$B$6</definedName>
-    <definedName name="WT_0200_005_m">'WT 0200 005'!$N$12</definedName>
-    <definedName name="WT_0200_005_p">'WT 0200 005'!$I$19</definedName>
-    <definedName name="WT_0200_005_q">'WT 0200 005'!$N$3</definedName>
-    <definedName name="WT_0200_006">'WT 0200 006'!$B$6</definedName>
-    <definedName name="WT_0200_006_m">'WT 0200 006'!$N$12</definedName>
-    <definedName name="WT_0200_006_p">'WT 0200 006'!$I$17</definedName>
-    <definedName name="WT_0200_006_q">'WT 0200 006'!$N$3</definedName>
+    <definedName name="WT_0200_001">'WT 02001'!$B$6</definedName>
+    <definedName name="WT_0200_001_m">'WT 02001'!$N$12</definedName>
+    <definedName name="WT_0200_001_p">'WT 02001'!$I$25</definedName>
+    <definedName name="WT_0200_001_q">'WT 02001'!$N$3</definedName>
+    <definedName name="WT_0200_003">'WT 02003'!$B$6</definedName>
+    <definedName name="WT_0200_003_m">'WT 02003'!$N$12</definedName>
+    <definedName name="WT_0200_003_p">'WT 02003'!$I$21</definedName>
+    <definedName name="WT_0200_003_q">'WT 02003'!$N$3</definedName>
+    <definedName name="WT_0200_004">'WT 02004'!$B$6</definedName>
+    <definedName name="WT_0200_004_m">'WT 02004'!$N$12</definedName>
+    <definedName name="WT_0200_004_p">'WT 02004'!$I$17</definedName>
+    <definedName name="WT_0200_004_q">'WT 02004'!$N$3</definedName>
+    <definedName name="WT_0200_005">'WT 02002'!$B$6</definedName>
+    <definedName name="WT_0200_005_m">'WT 02002'!$N$12</definedName>
+    <definedName name="WT_0200_005_p">'WT 02002'!$I$19</definedName>
+    <definedName name="WT_0200_005_q">'WT 02002'!$N$3</definedName>
+    <definedName name="WT_0200_006">'WT 02005'!$B$6</definedName>
+    <definedName name="WT_0200_006_m">'WT 02005'!$N$12</definedName>
+    <definedName name="WT_0200_006_p">'WT 02005'!$I$17</definedName>
+    <definedName name="WT_0200_006_q">'WT 02005'!$N$3</definedName>
     <definedName name="WT_A0200">'WT A0200'!$B$5</definedName>
-    <definedName name="WT_A0200_f">'WT A0200'!$J$38</definedName>
-    <definedName name="WT_A0200_m">'WT A0200'!$N$22</definedName>
-    <definedName name="WT_A0200_p">'WT A0200'!$I$34</definedName>
-    <definedName name="WT_A0200_pa">'WT A0200'!$E$16</definedName>
+    <definedName name="WT_A0200_f">'WT A0200'!$J$37</definedName>
+    <definedName name="WT_A0200_m">'WT A0200'!$N$21</definedName>
+    <definedName name="WT_A0200_p">'WT A0200'!$I$33</definedName>
+    <definedName name="WT_A0200_pa">'WT A0200'!$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="192">
   <si>
     <t>University</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Front Hub</t>
   </si>
   <si>
-    <t>WT 0200 001</t>
-  </si>
-  <si>
     <t>Main part of the assembly</t>
   </si>
   <si>
@@ -569,12 +566,6 @@
     <t>Front Bearing Spacer</t>
   </si>
   <si>
-    <t>WT 0200 005</t>
-  </si>
-  <si>
-    <t>WT 0200 004</t>
-  </si>
-  <si>
     <t>Speed sensor spacer</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>Speed Sensor Disc</t>
   </si>
   <si>
-    <t>WT 0200 006</t>
-  </si>
-  <si>
     <t>Steel, Mild</t>
   </si>
   <si>
@@ -611,9 +599,6 @@
     <t>Front Wheel Spacer</t>
   </si>
   <si>
-    <t>WT 0200 003</t>
-  </si>
-  <si>
     <t>Wheel Bearing, Ball, Angular Contact</t>
   </si>
   <si>
@@ -675,6 +660,30 @@
   </si>
   <si>
     <t>Front Wheel Spacer on hub</t>
+  </si>
+  <si>
+    <t>WT 02001</t>
+  </si>
+  <si>
+    <t>WT 02002</t>
+  </si>
+  <si>
+    <t>WT 02003</t>
+  </si>
+  <si>
+    <t>Part to avoid the speed sensor disc to interfere with the Upright</t>
+  </si>
+  <si>
+    <t>WT 02005</t>
+  </si>
+  <si>
+    <t>Disc use in combination with a sensor to obtain the speed of a wheel</t>
+  </si>
+  <si>
+    <t>WT 02004</t>
+  </si>
+  <si>
+    <t>Part to let a space beetween the hub and the first bearing</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1399,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1505,7 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1953,6 +1961,103 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6138333" y="2666999"/>
+          <a:ext cx="1164167" cy="1137405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="WT_0200_005 (Bearing Spacer).pdf - Adobe Acrobat Pro DC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D557CDED-1C8D-48A4-BC2E-B78FFB45F9FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8574" t="13351" r="24958" b="866"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="295274"/>
+          <a:ext cx="12258675" cy="8629651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1990,7 +2095,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2045,7 +2150,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2088,7 +2193,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2131,103 +2236,6 @@
         <a:xfrm>
           <a:off x="85725" y="295274"/>
           <a:ext cx="12296776" cy="8686801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>184904</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6138333" y="2666999"/>
-          <a:ext cx="1164167" cy="1137405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="WT_0200_005 (Bearing Spacer).pdf - Adobe Acrobat Pro DC">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D557CDED-1C8D-48A4-BC2E-B78FFB45F9FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="8574" t="13351" r="24958" b="866"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047750" y="295274"/>
-          <a:ext cx="12258675" cy="8629651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2581,15 +2589,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2619,7 +2627,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2649,13 +2657,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="83"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2668,10 +2676,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="83" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2706,7 +2714,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="83" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2736,10 +2744,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="83" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2759,10 +2767,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="83" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2807,10 +2815,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="83" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2830,10 +2838,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="83" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2903,12 +2911,12 @@
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="83" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="86" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2924,10 +2932,585 @@
     <tabColor rgb="FF99FFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="78">
+        <v>81</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="73">
+        <f>WT_0200_004_m+WT_0200_004_p</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="77">
+        <v>1</v>
+      </c>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="133" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="73">
+        <f>N3*N2</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="128">
+        <f>J11*K11*L11</f>
+        <v>1.0983600000000001E-2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="92">
+        <f>(45*10^(-3))^2</f>
+        <v>2.0249999999999999E-3</v>
+      </c>
+      <c r="K11" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="L11" s="30">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f>D11*E11</f>
+        <v>4.6131120000000005E-2</v>
+      </c>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="104">
+        <f>N11*M11</f>
+        <v>4.6131120000000005E-2</v>
+      </c>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="129">
+        <v>10</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="131">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="129">
+        <v>1</v>
+      </c>
+      <c r="G15" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="129">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="32">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="129">
+        <v>20</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="129">
+        <v>25.4</v>
+      </c>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <f>F16*D16</f>
+        <v>0.254</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="104">
+        <f>SUM(I15:I16)</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="62"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 02004 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="133" t="str">
+        <f>WT_0200_004</f>
+        <v>WT 02004</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'WT 02004'!A1" display="'WT 02004'!A1"/>
+    <hyperlink ref="A1" location="'WT 02004'!A1" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +3537,7 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2969,24 +3552,24 @@
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="78">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="74">
-        <f>WT_0200_005_m+WT_0200_005_p</f>
-        <v>2.6214313574000001</v>
+      <c r="N2" s="73">
+        <f>WT_0200_006_m+WT_0200_006_p</f>
+        <v>3.9701600000000004</v>
       </c>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -2994,10 +3577,10 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="133" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="56"/>
@@ -3007,24 +3590,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="77">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="134" t="str">
+      <c r="B4" s="133" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -3032,7 +3615,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -3042,14 +3625,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -3057,26 +3640,26 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="99" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f>N3*N2</f>
-        <v>2.6214313574000001</v>
+        <v>3.9701600000000004</v>
       </c>
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -3085,7 +3668,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="99" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -3095,7 +3678,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -3116,10 +3699,12 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -3135,7 +3720,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3152,89 +3737,89 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="102" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="D11" s="131">
+        <v>2.25</v>
+      </c>
+      <c r="E11" s="128">
+        <f>J11*K11*L11</f>
+        <v>0.20096000000000003</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="E11" s="129">
-        <f>J11*K11*L11</f>
-        <v>5.7959846999999995E-2</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="93">
-        <f>(55/2*10^-3)^2*3.14</f>
-        <v>2.374625E-3</v>
+        <v>156</v>
+      </c>
+      <c r="J11" s="92">
+        <f>0.16*0.16</f>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="K11" s="22">
-        <v>8.9999999999999993E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="L11" s="30">
-        <v>2712</v>
+        <v>7850</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="31">
         <f>D11*E11</f>
-        <v>0.24343135739999999</v>
+        <v>0.45216000000000006</v>
       </c>
       <c r="O11" s="66"/>
     </row>
@@ -3251,12 +3836,12 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="104" t="s">
+      <c r="M12" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="104">
         <f>N11*M11</f>
-        <v>0.24343135739999999</v>
+        <v>0.45216000000000006</v>
       </c>
       <c r="O12" s="62"/>
     </row>
@@ -3278,31 +3863,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="102" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -3313,31 +3898,33 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
+      <c r="A15" s="129">
         <v>10</v>
       </c>
-      <c r="B15" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="132">
+      <c r="B15" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="131">
         <v>1.3</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="129">
         <v>1</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130">
-        <v>1</v>
+      <c r="G15" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="129">
+        <v>0.5</v>
       </c>
       <c r="I15" s="32">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
@@ -3347,670 +3934,24 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
+      <c r="A16" s="129">
         <v>20</v>
       </c>
-      <c r="B16" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="130">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G16" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="130">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
-        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130">
-        <v>30</v>
-      </c>
-      <c r="B17" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="132">
-        <v>0.65</v>
-      </c>
-      <c r="E17" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="130">
-        <v>1</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="65"/>
-    </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130">
-        <v>40</v>
-      </c>
-      <c r="B18" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="130">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="130">
-        <v>1</v>
-      </c>
-      <c r="I18" s="31">
-        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
-        <v>0.06</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="65"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="105">
-        <f>SUM(I15:I18)</f>
-        <v>2.3780000000000001</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="62"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="62"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" location="'WT 0200 005 Drawing'!A1" display="Drawing"/>
-    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="21" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
-  </rowBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="134" t="str">
-        <f>WT_0200_005</f>
-        <v>WT 0200 005</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="WT_0200_005" display="WT_0200_005"/>
-    <hyperlink ref="A1" location="'WT 0200 005 '!A1" display="Drawing part :"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="79">
-        <v>81</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="74">
-        <f>WT_0200_006_m+WT_0200_006_p</f>
-        <v>3.9701600000000004</v>
-      </c>
-      <c r="O2" s="62"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>'WT A0200'!B3</f>
-        <v>Wheels &amp; Tires</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="78">
-        <v>1</v>
-      </c>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="134" t="str">
-        <f>'WT A0200'!B4</f>
-        <v>Front Hubs</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="B16" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="74">
-        <f>N3*N2</f>
-        <v>3.9701600000000004</v>
-      </c>
-      <c r="O5" s="62"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="62"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="62"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="62"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>10</v>
-      </c>
-      <c r="B11" s="136" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="132">
-        <v>2.25</v>
-      </c>
-      <c r="E11" s="129">
-        <f>J11*K11*L11</f>
-        <v>0.20096000000000003</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" s="93">
-        <f>0.16*0.16</f>
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="L11" s="30">
-        <v>7850</v>
-      </c>
-      <c r="M11" s="24">
-        <v>1</v>
-      </c>
-      <c r="N11" s="31">
-        <f>D11*E11</f>
-        <v>0.45216000000000006</v>
-      </c>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="105">
-        <f>N11*M11</f>
-        <v>0.45216000000000006</v>
-      </c>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="62"/>
-    </row>
-    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
-        <v>10</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="132">
-        <v>1.3</v>
-      </c>
-      <c r="E15" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="130">
-        <v>1</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="130">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="32">
-        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
-        <v>20</v>
-      </c>
-      <c r="B16" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132">
+      <c r="C16" s="130"/>
+      <c r="D16" s="131">
         <v>0.01</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="129">
         <v>286.8</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130">
+      <c r="G16" s="129"/>
+      <c r="H16" s="129">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -4032,10 +3973,10 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="105">
+      <c r="I17" s="104">
         <f>SUM(I15:I16)</f>
         <v>3.5180000000000002</v>
       </c>
@@ -4083,7 +4024,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
-    <hyperlink ref="E3" location="'WT 0200 006 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="E3" location="'WT 02005 Drawing'!A1" display="Drawing"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4117,18 +4058,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="134" t="str">
+      <c r="B1" s="133" t="str">
         <f>WT_0200_006</f>
-        <v>WT 0200 006</v>
+        <v>WT 02005</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'WT 0200 006'!A1" display="Drawing part :"/>
-    <hyperlink ref="B1" location="'WT 0200 006'!A1" display="'WT 0200 006'!A1"/>
+    <hyperlink ref="A1" location="'WT 02005'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02005'!A1" display="'WT 02005'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4143,7 +4084,7 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
@@ -4171,7 +4112,7 @@
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="43"/>
@@ -4188,7 +4129,7 @@
       <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="14"/>
@@ -4208,7 +4149,7 @@
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="87">
         <v>81</v>
       </c>
       <c r="C4" s="14"/>
@@ -4271,357 +4212,357 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109" t="str">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C7" s="110" t="e">
+      <c r="C7" s="109" t="e">
         <f>EL_A0001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111" t="str">
+      <c r="E7" s="109"/>
+      <c r="F7" s="110" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="112" t="e">
+      <c r="G7" s="109"/>
+      <c r="H7" s="111" t="e">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="113" t="e">
+      <c r="I7" s="112" t="e">
         <f>BR_A0001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J7" s="114" t="e">
+      <c r="J7" s="113" t="e">
         <f>BR_A0001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="114" t="e">
+      <c r="K7" s="113" t="e">
         <f>BR_A0001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L7" s="114" t="e">
+      <c r="L7" s="113" t="e">
         <f>BR_A0001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="114" t="e">
+      <c r="M7" s="113" t="e">
         <f>BR_A0001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N7" s="115" t="e">
+      <c r="N7" s="114" t="e">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
         <v>#NAME?</v>
       </c>
-      <c r="O7" s="116"/>
+      <c r="O7" s="115"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118" t="str">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117" t="str">
         <f>'WT A0200'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C8" s="126" t="e">
+      <c r="C8" s="125" t="e">
         <f>EL_01001</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="119" t="str">
+      <c r="E8" s="118" t="str">
         <f>F7</f>
         <v>Front Hubs</v>
       </c>
-      <c r="F8" s="120" t="str">
-        <f>'WT 0200 001'!B5</f>
+      <c r="F8" s="119" t="str">
+        <f>'WT 02001'!B5</f>
         <v>Front Hub</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="121" t="e">
+      <c r="G8" s="118"/>
+      <c r="H8" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="122" t="e">
+      <c r="I8" s="121" t="e">
         <f>BR_A0001_q*BR_01001_q</f>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="123" t="e">
+      <c r="J8" s="122" t="e">
         <f>BR_01001_m</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="123" t="e">
+      <c r="K8" s="122" t="e">
         <f>BR_01001_p</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="123" t="e">
+      <c r="L8" s="122" t="e">
         <f>BR_01001_f</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="123" t="e">
+      <c r="M8" s="122" t="e">
         <f>BR_01001_t</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="124" t="e">
+      <c r="N8" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="O8" s="125"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118" t="str">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="121">
+      <c r="E9" s="118"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="124">
+      <c r="I9" s="126"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="125"/>
+      <c r="O9" s="124"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118" t="str">
+      <c r="A10" s="116"/>
+      <c r="B10" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="121">
+      <c r="E10" s="118"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="124">
+      <c r="I10" s="126"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="125"/>
+      <c r="O10" s="124"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118" t="str">
+      <c r="A11" s="116"/>
+      <c r="B11" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="121">
+      <c r="E11" s="118"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124">
+      <c r="I11" s="126"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="124"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118" t="str">
+      <c r="A12" s="116"/>
+      <c r="B12" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="121">
+      <c r="E12" s="118"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="124">
+      <c r="I12" s="126"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="125"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118" t="str">
+      <c r="A13" s="116"/>
+      <c r="B13" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="121">
+      <c r="E13" s="118"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="124">
+      <c r="I13" s="126"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="125"/>
+      <c r="O13" s="124"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="str">
+      <c r="A14" s="116"/>
+      <c r="B14" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="121">
+      <c r="E14" s="118"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="127"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="124">
+      <c r="I14" s="126"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="125"/>
+      <c r="O14" s="124"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118" t="str">
+      <c r="A15" s="116"/>
+      <c r="B15" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="121">
+      <c r="E15" s="118"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="124">
+      <c r="I15" s="126"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="125"/>
+      <c r="O15" s="124"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118" t="str">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="121">
+      <c r="E16" s="118"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124">
+      <c r="I16" s="126"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="125"/>
+      <c r="O16" s="124"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118" t="str">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117" t="str">
         <f>'WT A0200'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119" t="s">
+      <c r="C17" s="118"/>
+      <c r="D17" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="121">
+      <c r="E17" s="118"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124">
+      <c r="I17" s="126"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="125"/>
+      <c r="O17" s="124"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -4638,23 +4579,23 @@
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="92" t="e">
+      <c r="J18" s="91" t="e">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="92" t="e">
+      <c r="K18" s="91" t="e">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L18" s="92" t="e">
+      <c r="L18" s="91" t="e">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M18" s="92" t="e">
+      <c r="M18" s="91" t="e">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N18" s="92" t="e">
+      <c r="N18" s="91" t="e">
         <f>SUM(N7:N17)</f>
         <v>#NAME?</v>
       </c>
@@ -6900,10 +6841,10 @@
     <tabColor rgb="FF33CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6941,7 +6882,7 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -6956,24 +6897,24 @@
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="78">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="94" t="s">
+      <c r="M2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="91">
+      <c r="N2" s="90">
         <f>WT_A0200_pa+WT_A0200_m+WT_A0200_p+WT_A0200_f</f>
         <v>341.7412675152284</v>
       </c>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -6989,16 +6930,16 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="77">
         <v>2</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -7011,7 +6952,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -7021,7 +6962,7 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -7034,22 +6975,22 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="94" t="s">
+      <c r="M5" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f>N2*N3</f>
         <v>683.4825350304568</v>
       </c>
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -7062,7 +7003,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="94" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -7072,7 +7013,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -7110,19 +7051,19 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="93" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="56"/>
@@ -7140,19 +7081,19 @@
       <c r="A10" s="72">
         <v>10</v>
       </c>
-      <c r="B10" s="83" t="str">
-        <f>'WT 0200 001'!B5</f>
+      <c r="B10" s="82" t="str">
+        <f>'WT 02001'!B5</f>
         <v>Front Hub</v>
       </c>
-      <c r="C10" s="74">
-        <f>'WT 0200 001'!N2</f>
+      <c r="C10" s="73">
+        <f>'WT 02001'!N2</f>
         <v>64.158517485600001</v>
       </c>
-      <c r="D10" s="82">
-        <f>'WT 0200 001'!N3</f>
+      <c r="D10" s="81">
+        <f>'WT 02001'!N3</f>
         <v>1</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="73">
         <f>C10*D10</f>
         <v>64.158517485600001</v>
       </c>
@@ -7171,10 +7112,21 @@
       <c r="A11" s="72">
         <v>20</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="73">
+        <f>'WT 02002'!N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="D11" s="81">
+        <f>'WT 02002'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <f>C11*D11</f>
+        <v>2.6214313574000001</v>
+      </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -7190,18 +7142,18 @@
       <c r="A12" s="72">
         <v>30</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="74">
-        <f>'WT 0200 003'!N2</f>
+      <c r="B12" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="73">
+        <f>'WT 02003'!N2</f>
         <v>20.676657798400001</v>
       </c>
-      <c r="D12" s="82">
-        <f>'WT 0200 003'!N3</f>
+      <c r="D12" s="81">
+        <f>'WT 02003'!N3</f>
         <v>1</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="73">
         <f>C12*D12</f>
         <v>20.676657798400001</v>
       </c>
@@ -7220,18 +7172,18 @@
       <c r="A13" s="72">
         <v>40</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="74">
-        <f>'WT 0200 004'!N2</f>
+      <c r="B13" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="73">
+        <f>'WT 02004'!N2</f>
         <v>0.95013112</v>
       </c>
-      <c r="D13" s="82">
-        <f>'WT 0200 004'!N3</f>
+      <c r="D13" s="81">
+        <f>'WT 02004'!N3</f>
         <v>1</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="73">
         <f>C13*D13</f>
         <v>0.95013112</v>
       </c>
@@ -7250,20 +7202,20 @@
       <c r="A14" s="72">
         <v>50</v>
       </c>
-      <c r="B14" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="74">
-        <f>'WT 0200 005'!N2</f>
-        <v>2.6214313574000001</v>
-      </c>
-      <c r="D14" s="82">
-        <f>'WT 0200 005'!N3</f>
+      <c r="B14" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="73">
+        <f>'WT 02005'!N2</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="D14" s="81">
+        <f>'WT 02005'!N3</f>
         <v>1</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="73">
         <f>C14*D14</f>
-        <v>2.6214313574000001</v>
+        <v>3.9701600000000004</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
@@ -7277,319 +7229,323 @@
       <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
-        <v>60</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="74">
-        <f>'WT 0200 006'!N2</f>
-        <v>3.9701600000000004</v>
-      </c>
-      <c r="D15" s="82">
-        <f>'WT 0200 006'!N3</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="74">
-        <f>C15*D15</f>
-        <v>3.9701600000000004</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="95">
+        <f>SUM(E10:E14)</f>
+        <v>92.376897761400002</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="96">
-        <f>SUM(E10:E15)</f>
-        <v>92.376897761400002</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
+        <v>10</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73">
+        <f>0.4*((E18^2*G18))^0.5</f>
+        <v>118.74544201778863</v>
+      </c>
+      <c r="E18" s="72">
+        <v>72</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="72">
+        <v>17</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74">
+        <v>2</v>
+      </c>
+      <c r="N18" s="73">
+        <f>M18*D18</f>
+        <v>237.49088403557727</v>
+      </c>
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="140">
+        <v>20</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="139">
+        <f>0.126*E19+1.57</f>
+        <v>5.98</v>
+      </c>
+      <c r="E19" s="140">
+        <v>35</v>
+      </c>
+      <c r="F19" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="140"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="145">
+        <v>1</v>
+      </c>
+      <c r="N19" s="73">
+        <f>M19*D19</f>
+        <v>5.98</v>
+      </c>
+      <c r="O19" s="66"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="140">
+        <v>30</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="139">
+        <v>0</v>
+      </c>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="73">
+        <f>M20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="95">
+        <f>SUM(N18:N20)</f>
+        <v>243.47088403557726</v>
+      </c>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="62"/>
+    </row>
+    <row r="23" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="94" t="s">
+      <c r="B23" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D23" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="94" t="s">
+      <c r="E23" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="94" t="s">
+      <c r="G23" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="62"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="68"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="138">
         <v>10</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B24" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="137">
+        <v>0.06</v>
+      </c>
+      <c r="E24" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="129">
+        <v>1</v>
+      </c>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129">
+        <v>1</v>
+      </c>
+      <c r="I24" s="73">
+        <f t="shared" ref="I24" si="0">IF(H24="",D24*F24,D24*F24*H24)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="129">
+        <v>20</v>
+      </c>
+      <c r="B25" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="74">
-        <f>0.4*((E19^2*G19))^0.5</f>
-        <v>118.74544201778863</v>
-      </c>
-      <c r="E19" s="72">
-        <v>72</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="72">
-        <v>17</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75">
+      <c r="C25" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="151">
+        <v>0.19</v>
+      </c>
+      <c r="E25" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="129">
         <v>2</v>
       </c>
-      <c r="N19" s="74">
-        <f>M19*D19</f>
-        <v>237.49088403557727</v>
-      </c>
-      <c r="O19" s="62"/>
-    </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141">
-        <v>20</v>
-      </c>
-      <c r="B20" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="140">
-        <f>0.126*E20+1.57</f>
-        <v>5.98</v>
-      </c>
-      <c r="E20" s="141">
-        <v>35</v>
-      </c>
-      <c r="F20" s="141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="146">
+      <c r="G25" s="129"/>
+      <c r="H25" s="129">
         <v>1</v>
       </c>
-      <c r="N20" s="74">
-        <f>M20*D20</f>
-        <v>5.98</v>
-      </c>
-      <c r="O20" s="66"/>
-    </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="141">
-        <v>30</v>
-      </c>
-      <c r="B21" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="140">
-        <v>0</v>
-      </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="74">
-        <f>M21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="62"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="96">
-        <f>SUM(N19:N21)</f>
-        <v>243.47088403557726</v>
-      </c>
-      <c r="O22" s="62"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="62"/>
-    </row>
-    <row r="24" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="139">
-        <v>10</v>
-      </c>
-      <c r="B25" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="138">
-        <v>0.06</v>
-      </c>
-      <c r="E25" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="130">
-        <v>1</v>
-      </c>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130">
-        <v>1</v>
-      </c>
-      <c r="I25" s="74">
-        <f t="shared" ref="I25" si="0">IF(H25="",D25*F25,D25*F25*H25)</f>
-        <v>0.06</v>
+      <c r="I25" s="73">
+        <f t="shared" ref="I25:I27" si="1">IF(H25="",D25*F25,D25*F25*H25)</f>
+        <v>0.38</v>
       </c>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
@@ -7599,31 +7555,31 @@
       <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="130">
-        <v>20</v>
-      </c>
-      <c r="B26" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="152">
-        <v>0.19</v>
-      </c>
-      <c r="E26" s="130" t="s">
+      <c r="A26" s="138">
+        <v>30</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="137">
+        <v>0.06</v>
+      </c>
+      <c r="E26" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="130">
-        <v>2</v>
-      </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130">
+      <c r="F26" s="129">
         <v>1</v>
       </c>
-      <c r="I26" s="74">
-        <f t="shared" ref="I26:I28" si="1">IF(H26="",D26*F26,D26*F26*H26)</f>
-        <v>0.38</v>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129">
+        <v>1</v>
+      </c>
+      <c r="I26" s="73">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
       </c>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -7632,65 +7588,65 @@
       <c r="N26" s="56"/>
       <c r="O26" s="62"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="139">
-        <v>30</v>
-      </c>
-      <c r="B27" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="138">
+    <row r="27" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="138">
+        <v>40</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="137">
         <v>0.06</v>
       </c>
-      <c r="E27" s="130" t="s">
+      <c r="E27" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="130">
+      <c r="F27" s="129">
         <v>1</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130">
+      <c r="G27" s="129"/>
+      <c r="H27" s="129">
         <v>1</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="73">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="62"/>
-    </row>
-    <row r="28" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="139">
-        <v>40</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="138">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="65"/>
+    </row>
+    <row r="28" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="138">
+        <v>50</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="137">
         <v>0.06</v>
       </c>
-      <c r="E28" s="130" t="s">
+      <c r="E28" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="130">
+      <c r="F28" s="129">
         <v>1</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130">
+      <c r="G28" s="129"/>
+      <c r="H28" s="129">
         <v>1</v>
       </c>
-      <c r="I28" s="74">
-        <f t="shared" si="1"/>
+      <c r="I28" s="73">
+        <f>IF(H28="",D28*F28,D28*F28*H28)</f>
         <v>0.06</v>
       </c>
       <c r="J28" s="57"/>
@@ -7698,34 +7654,34 @@
       <c r="L28" s="57"/>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
-      <c r="O28" s="65"/>
-    </row>
-    <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="139">
-        <v>50</v>
-      </c>
-      <c r="B29" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="138">
-        <v>0.06</v>
-      </c>
-      <c r="E29" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="130">
+      <c r="O28" s="68"/>
+    </row>
+    <row r="29" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="129">
+        <v>80</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="149">
+        <v>0.13</v>
+      </c>
+      <c r="E29" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="147">
         <v>1</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130">
+      <c r="G29" s="129"/>
+      <c r="H29" s="129">
         <v>1</v>
       </c>
-      <c r="I29" s="74">
+      <c r="I29" s="73">
         <f>IF(H29="",D29*F29,D29*F29*H29)</f>
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
@@ -7734,100 +7690,100 @@
       <c r="N29" s="57"/>
       <c r="O29" s="68"/>
     </row>
-    <row r="30" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="130">
-        <v>80</v>
-      </c>
-      <c r="B30" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="150">
-        <v>0.13</v>
-      </c>
-      <c r="E30" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="148">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="129">
+        <v>60</v>
+      </c>
+      <c r="B30" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="137">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="129">
+        <v>15.07</v>
+      </c>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129">
         <v>1</v>
       </c>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130">
-        <v>1</v>
-      </c>
-      <c r="I30" s="74">
+      <c r="I30" s="73">
         <f>IF(H30="",D30*F30,D30*F30*H30)</f>
-        <v>0.13</v>
+        <v>0.3014</v>
       </c>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
-      <c r="O30" s="68"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="130">
-        <v>60</v>
-      </c>
-      <c r="B31" s="147" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="138">
-        <v>0.02</v>
-      </c>
-      <c r="E31" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="130">
-        <v>15.07</v>
-      </c>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130">
+      <c r="A31" s="138">
+        <v>70</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="137">
+        <v>0.13</v>
+      </c>
+      <c r="E31" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="129">
+        <v>4</v>
+      </c>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129">
         <v>1</v>
       </c>
-      <c r="I31" s="74">
+      <c r="I31" s="73">
         <f>IF(H31="",D31*F31,D31*F31*H31)</f>
-        <v>0.3014</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="65"/>
+        <v>0.52</v>
+      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="62"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="139">
-        <v>70</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="138">
-        <v>0.13</v>
-      </c>
-      <c r="E32" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="130">
-        <v>4</v>
-      </c>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130">
+      <c r="A32" s="129">
+        <v>80</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="149">
+        <v>0.06</v>
+      </c>
+      <c r="E32" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="147">
         <v>1</v>
       </c>
-      <c r="I32" s="74">
+      <c r="G32" s="129"/>
+      <c r="H32" s="129">
+        <v>1</v>
+      </c>
+      <c r="I32" s="73">
         <f>IF(H32="",D32*F32,D32*F32*H32)</f>
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -7837,33 +7793,20 @@
       <c r="O32" s="62"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="130">
-        <v>80</v>
-      </c>
-      <c r="B33" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="149" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="150">
-        <v>0.06</v>
-      </c>
-      <c r="E33" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="148">
-        <v>1</v>
-      </c>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130">
-        <v>1</v>
-      </c>
-      <c r="I33" s="74">
-        <f>IF(H33="",D33*F33,D33*F33*H33)</f>
-        <v>0.06</v>
-      </c>
-      <c r="J33" s="56"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="95">
+        <f>SUM(I24:I32)</f>
+        <v>1.6314000000000002</v>
+      </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
@@ -7871,20 +7814,15 @@
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="96">
-        <f>SUM(I25:I33)</f>
-        <v>1.6314000000000002</v>
-      </c>
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -7892,15 +7830,36 @@
       <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="A35" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="93" t="s">
+        <v>18</v>
+      </c>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
@@ -7908,35 +7867,37 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="94" t="s">
-        <v>18</v>
+      <c r="A36" s="129">
+        <v>10</v>
+      </c>
+      <c r="B36" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="151">
+        <f>1.25/105154*E36^2*G36*SQRT(G36)+(0.005*EXP(0.319*E36))</f>
+        <v>1.0655214295627982</v>
+      </c>
+      <c r="E36" s="129">
+        <v>12</v>
+      </c>
+      <c r="F36" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="129">
+        <v>62</v>
+      </c>
+      <c r="H36" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="153">
+        <v>4</v>
+      </c>
+      <c r="J36" s="151">
+        <f>D36*I36</f>
+        <v>4.2620857182511926</v>
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
@@ -7945,36 +7906,19 @@
       <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="130">
-        <v>10</v>
-      </c>
-      <c r="B37" s="136" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="130" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="152">
-        <f>1.25/105154*E37^2*G37*SQRT(G37)+(0.005*EXP(0.319*E37))</f>
-        <v>1.0655214295627982</v>
-      </c>
-      <c r="E37" s="130">
-        <v>12</v>
-      </c>
-      <c r="F37" s="153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="130">
-        <v>62</v>
-      </c>
-      <c r="H37" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="154">
-        <v>4</v>
-      </c>
-      <c r="J37" s="152">
-        <f>D37*I37</f>
+      <c r="A37" s="67"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="95">
+        <f>SUM(J36:J36)</f>
         <v>4.2620857182511926</v>
       </c>
       <c r="K37" s="56"/>
@@ -7984,84 +7928,62 @@
       <c r="O37" s="62"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="96">
-        <f>SUM(J37:J37)</f>
-        <v>4.2620857182511926</v>
-      </c>
+      <c r="A38" s="63"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
       <c r="O38" s="62"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="62"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="71"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="71"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="B14" location="'WT 0200 005 '!A1" display="Front Bearing Spacer"/>
-    <hyperlink ref="B13" location="WT_0200_004" display="Speed Sensor Spacer"/>
-    <hyperlink ref="B15" location="'WT 0200 006'!A1" display="Speed Sensor Disc"/>
-    <hyperlink ref="B12" location="'WT 0200 003'!A1" display="Front Wheel Spacer"/>
+    <hyperlink ref="B10" location="'WT 02001'!A1" display="'WT 02001'!A1"/>
+    <hyperlink ref="B11" location="'WT 02002'!A1" display="Front Bearing Spacer"/>
+    <hyperlink ref="B13" location="'WT 02004'!A1" display="Speed Sensor Spacer"/>
+    <hyperlink ref="B14" location="'WT 02005'!A1" display="Speed Sensor Disc"/>
+    <hyperlink ref="B12" location="'WT 02003'!A1" display="Front Wheel Spacer"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8079,8 +8001,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8115,7 +8037,7 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -8130,24 +8052,24 @@
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="78">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="73">
         <f>WT_0200_001_m+WT_0200_001_p</f>
         <v>64.158517485600001</v>
       </c>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -8155,10 +8077,10 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="56"/>
@@ -8168,24 +8090,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="77">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="134" t="str">
+      <c r="B4" s="133" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -8193,7 +8115,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -8203,14 +8125,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -8218,26 +8140,26 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="99" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f>N3*N2</f>
         <v>64.158517485600001</v>
       </c>
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -8246,7 +8168,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="99" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -8256,7 +8178,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -8277,11 +8199,11 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -8298,7 +8220,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -8315,74 +8237,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="102" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="128">
         <f>J11*K11*L11</f>
         <v>3.2740660680000002</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="93">
+        <v>136</v>
+      </c>
+      <c r="J11" s="92">
         <f>(65*10^-3)^2*3.14</f>
         <v>1.3266500000000002E-2</v>
       </c>
@@ -8414,10 +8336,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="104" t="s">
+      <c r="M12" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="104">
         <f>N11*M11</f>
         <v>13.751077485600002</v>
       </c>
@@ -8441,31 +8363,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="102" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -8476,26 +8398,26 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
+      <c r="A15" s="129">
         <v>10</v>
       </c>
-      <c r="B15" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="132">
+      <c r="B15" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="131">
         <v>1.3</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="129">
         <v>1</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130">
+      <c r="G15" s="129"/>
+      <c r="H15" s="129">
         <v>1</v>
       </c>
       <c r="I15" s="32">
@@ -8510,29 +8432,29 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
+      <c r="A16" s="129">
         <v>20</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="D16" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="130">
+      <c r="F16" s="129">
         <f>13.2+898.7+18.7</f>
         <v>930.60000000000014</v>
       </c>
-      <c r="G16" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="130">
+      <c r="G16" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="129">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -8547,26 +8469,26 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130">
+      <c r="A17" s="129">
         <v>30</v>
       </c>
-      <c r="B17" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="132">
+      <c r="B17" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="131">
         <v>0.65</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="130">
+      <c r="F17" s="129">
         <v>1</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130">
+      <c r="G17" s="129"/>
+      <c r="H17" s="129">
         <v>1</v>
       </c>
       <c r="I17" s="31">
@@ -8581,29 +8503,29 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130">
+      <c r="A18" s="129">
         <v>40</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="D18" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="130">
+      <c r="F18" s="129">
         <f>13.2+53.1-2.8</f>
         <v>63.5</v>
       </c>
-      <c r="G18" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="130">
+      <c r="G18" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="129">
         <v>1</v>
       </c>
       <c r="I18" s="31">
@@ -8618,24 +8540,24 @@
       <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130">
+      <c r="A19" s="129">
         <v>50</v>
       </c>
-      <c r="B19" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132">
+      <c r="B19" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131">
         <v>1.3</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="130">
+      <c r="F19" s="129">
         <v>1</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130">
+      <c r="G19" s="129"/>
+      <c r="H19" s="129">
         <v>1</v>
       </c>
       <c r="I19" s="31">
@@ -8650,28 +8572,28 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130">
+      <c r="A20" s="129">
         <v>60</v>
       </c>
-      <c r="B20" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="132">
+      <c r="B20" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="131">
         <v>0.04</v>
       </c>
-      <c r="E20" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="130">
+      <c r="E20" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="129">
         <v>149</v>
       </c>
-      <c r="G20" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="130">
+      <c r="G20" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="129">
         <v>1</v>
       </c>
       <c r="I20" s="31">
@@ -8686,24 +8608,24 @@
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130">
+      <c r="A21" s="129">
         <v>70</v>
       </c>
-      <c r="B21" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="132">
+      <c r="B21" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131">
         <v>0.65</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="130">
+      <c r="F21" s="129">
         <v>1</v>
       </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130">
+      <c r="G21" s="129"/>
+      <c r="H21" s="129">
         <v>1</v>
       </c>
       <c r="I21" s="31">
@@ -8718,29 +8640,29 @@
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130">
+      <c r="A22" s="129">
         <v>80</v>
       </c>
-      <c r="B22" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="132">
+      <c r="B22" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="131">
         <v>0.04</v>
       </c>
-      <c r="E22" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="130">
+      <c r="E22" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="129">
         <f>0.48*0.7</f>
         <v>0.33599999999999997</v>
       </c>
-      <c r="G22" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="130">
+      <c r="G22" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="129">
         <v>1</v>
       </c>
       <c r="I22" s="31">
@@ -8755,28 +8677,28 @@
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="130">
+      <c r="A23" s="129">
         <v>90</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="132">
+      <c r="D23" s="131">
         <v>0.1</v>
       </c>
-      <c r="E23" s="130" t="s">
+      <c r="E23" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="130">
+      <c r="F23" s="129">
         <v>6</v>
       </c>
-      <c r="G23" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="130">
+      <c r="G23" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="129">
         <v>1</v>
       </c>
       <c r="I23" s="31">
@@ -8791,28 +8713,28 @@
       <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="130">
+      <c r="A24" s="129">
         <v>100</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="132" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="132">
+      <c r="D24" s="131">
         <v>0.1</v>
       </c>
-      <c r="E24" s="130" t="s">
+      <c r="E24" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="130">
+      <c r="F24" s="129">
         <v>1.7</v>
       </c>
-      <c r="G24" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="130">
+      <c r="G24" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="129">
         <v>1</v>
       </c>
       <c r="I24" s="31">
@@ -8834,10 +8756,10 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="107" t="s">
+      <c r="H25" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="105">
+      <c r="I25" s="104">
         <f>SUM(I15:I24)</f>
         <v>50.407440000000001</v>
       </c>
@@ -8884,7 +8806,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" location="'WT 0200 001 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="E3" location="'WT 02001 Drawing'!A1" display="Drawing"/>
     <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8909,7 +8831,9 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8917,18 +8841,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="134" t="str">
+      <c r="B1" s="133" t="str">
         <f>WT_0200_001</f>
-        <v>WT 0200 001</v>
+        <v>WT 02001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'WT 0200 001'!A1" display="Drawing part :"/>
-    <hyperlink ref="B1" location="'WT 0200 001'!A1" display="'WT 0200 001'!A1"/>
+    <hyperlink ref="A1" location="'WT 02001'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02001'!A1" display="'WT 02001'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8942,11 +8866,657 @@
     <tabColor rgb="FF99FFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="78">
+        <v>81</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="73">
+        <f>WT_0200_005_m+WT_0200_005_p</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="77">
+        <v>1</v>
+      </c>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="133" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="73">
+        <f>N3*N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="128">
+        <f>J11*K11*L11</f>
+        <v>5.7959846999999995E-2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="92">
+        <f>(55/2*10^-3)^2*3.14</f>
+        <v>2.374625E-3</v>
+      </c>
+      <c r="K11" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="30">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f>D11*E11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="104">
+        <f>N11*M11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="129">
+        <v>10</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="131">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="129">
+        <v>1</v>
+      </c>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="129">
+        <v>20</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="129">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="129">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="129">
+        <v>30</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="131">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="129">
+        <v>1</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="129">
+        <v>40</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="129">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="129">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="104">
+        <f>SUM(I15:I18)</f>
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 02002 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="21" max="16383" man="1"/>
+    <brk id="55" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="133" t="str">
+        <f>WT_0200_005</f>
+        <v>WT 02002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="WT_0200_005" display="WT_0200_005"/>
+    <hyperlink ref="A1" location="'WT 02002'!A1" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8974,7 +9544,7 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -8989,24 +9559,24 @@
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="78">
         <v>81</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="73">
         <f>WT_0200_003_m+WT_0200_003_p</f>
         <v>20.676657798400001</v>
       </c>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -9014,10 +9584,10 @@
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="133" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="56"/>
@@ -9027,24 +9597,24 @@
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="77">
         <v>1</v>
       </c>
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="134" t="str">
+      <c r="B4" s="133" t="str">
         <f>'WT A0200'!B4</f>
         <v>Front Hubs</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="56"/>
@@ -9052,7 +9622,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="56"/>
@@ -9062,14 +9632,14 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="56"/>
@@ -9077,26 +9647,26 @@
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="99" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f>N3*N2</f>
         <v>20.676657798400001</v>
       </c>
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -9105,7 +9675,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="99" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="56"/>
@@ -9115,7 +9685,7 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -9136,11 +9706,11 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -9157,7 +9727,7 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -9174,74 +9744,74 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="102" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="31">
         <v>4.2</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="128">
         <f>J11*K11*L11</f>
         <v>0.86348995200000023</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="93">
+        <v>136</v>
+      </c>
+      <c r="J11" s="92">
         <f>(65*10^-3)^2*3.14</f>
         <v>1.3266500000000002E-2</v>
       </c>
@@ -9273,10 +9843,10 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="104" t="s">
+      <c r="M12" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="104">
         <f>N11*M11</f>
         <v>3.626657798400001</v>
       </c>
@@ -9300,31 +9870,31 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="102" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="25"/>
@@ -9335,26 +9905,26 @@
       <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
+      <c r="A15" s="129">
         <v>10</v>
       </c>
-      <c r="B15" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="132">
+      <c r="B15" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="131">
         <v>1.3</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="129">
         <v>1</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130">
+      <c r="G15" s="129"/>
+      <c r="H15" s="129">
         <v>1</v>
       </c>
       <c r="I15" s="32">
@@ -9369,28 +9939,28 @@
       <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
+      <c r="A16" s="129">
         <v>20</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="D16" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="130">
+      <c r="F16" s="129">
         <v>112</v>
       </c>
-      <c r="G16" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="130">
+      <c r="G16" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="129">
         <v>1</v>
       </c>
       <c r="I16" s="31">
@@ -9405,26 +9975,26 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130">
+      <c r="A17" s="129">
         <v>30</v>
       </c>
-      <c r="B17" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="132">
+      <c r="B17" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="131">
         <v>0.65</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="130">
+      <c r="F17" s="129">
         <v>1</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130">
+      <c r="G17" s="129"/>
+      <c r="H17" s="129">
         <v>1</v>
       </c>
       <c r="I17" s="31">
@@ -9439,28 +10009,28 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130">
+      <c r="A18" s="129">
         <v>40</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="D18" s="131">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="130">
+      <c r="F18" s="129">
         <v>84</v>
       </c>
-      <c r="G18" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="130">
+      <c r="G18" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="129">
         <v>1</v>
       </c>
       <c r="I18" s="31">
@@ -9475,24 +10045,24 @@
       <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130">
+      <c r="A19" s="129">
         <v>50</v>
       </c>
-      <c r="B19" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132">
+      <c r="B19" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131">
         <v>1.3</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="130">
+      <c r="F19" s="129">
         <v>1</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130">
+      <c r="G19" s="129"/>
+      <c r="H19" s="129">
         <v>1</v>
       </c>
       <c r="I19" s="31">
@@ -9507,28 +10077,28 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130">
+      <c r="A20" s="129">
         <v>60</v>
       </c>
-      <c r="B20" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="132">
+      <c r="B20" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="131">
         <v>0.04</v>
       </c>
-      <c r="E20" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="130">
+      <c r="E20" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="129">
         <v>149</v>
       </c>
-      <c r="G20" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="130">
+      <c r="G20" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="129">
         <v>1</v>
       </c>
       <c r="I20" s="31">
@@ -9550,10 +10120,10 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="104">
         <f>SUM(I15:I20)</f>
         <v>17.05</v>
       </c>
@@ -9601,7 +10171,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
-    <hyperlink ref="E3" location="'WT 0200 003 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="E3" location="'WT 02003 Drawing'!A1" display="Drawing"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9617,7 +10187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF99FFCC"/>
@@ -9625,8 +10195,8 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,590 +10205,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="134" t="str">
+      <c r="B1" s="133" t="str">
         <f>WT_0200_003</f>
-        <v>WT 0200 003</v>
+        <v>WT 02003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'WT 0200 003'!A1" display="Drawing part :"/>
-    <hyperlink ref="B1" location="'WT 0200 003'!A1" display="'WT 0200 003'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="79">
-        <v>81</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="74">
-        <f>WT_0200_004_m+WT_0200_004_p</f>
-        <v>0.95013112</v>
-      </c>
-      <c r="O2" s="62"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>'WT A0200'!B3</f>
-        <v>Wheels &amp; Tires</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="78">
-        <v>1</v>
-      </c>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="134" t="str">
-        <f>'WT A0200'!B4</f>
-        <v>Front Hubs</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="74">
-        <f>N3*N2</f>
-        <v>0.95013112</v>
-      </c>
-      <c r="O5" s="62"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="62"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="62"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="62"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="E11" s="129">
-        <f>J11*K11*L11</f>
-        <v>1.0983600000000001E-2</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" s="93">
-        <f>(45*10^(-3))^2</f>
-        <v>2.0249999999999999E-3</v>
-      </c>
-      <c r="K11" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="L11" s="30">
-        <v>2712</v>
-      </c>
-      <c r="M11" s="24">
-        <v>1</v>
-      </c>
-      <c r="N11" s="31">
-        <f>D11*E11</f>
-        <v>4.6131120000000005E-2</v>
-      </c>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="105">
-        <f>N11*M11</f>
-        <v>4.6131120000000005E-2</v>
-      </c>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="62"/>
-    </row>
-    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
-        <v>10</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="132">
-        <v>1.3</v>
-      </c>
-      <c r="E15" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="130">
-        <v>1</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="130">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="32">
-        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
-        <v>20</v>
-      </c>
-      <c r="B16" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="130">
-        <v>25.4</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
-        <f>F16*D16</f>
-        <v>0.254</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="105">
-        <f>SUM(I15:I16)</f>
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="62"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="62"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="71"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" location="'WT 0200 004 Drawing'!A1" display="Drawing"/>
-    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="19" max="16383" man="1"/>
-    <brk id="53" max="16383" man="1"/>
-  </rowBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="134" t="str">
-        <f>WT_0200_004</f>
-        <v>WT 0200 004</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="WT_0200_004" display="WT_0200_004"/>
-    <hyperlink ref="A1" location="'WT 0200 004'!A1" display="Drawing part :"/>
+    <hyperlink ref="A1" location="'WT 02003'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02003'!A1" display="'WT 02003'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
